--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1410,84 +1410,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,115 +1430,183 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,8 +1828,8 @@
   </sheetPr>
   <dimension ref="A1:J346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="I321" sqref="I321"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1871,16 +1871,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="67">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="66" t="s">
         <v>285</v>
       </c>
       <c r="E2" s="65" t="s">
@@ -1889,701 +1889,701 @@
       <c r="F2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="64" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75">
-      <c r="A3" s="49"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="12.75">
-      <c r="A4" s="49"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="54"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="12.75">
-      <c r="A5" s="49"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="55"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="12.75">
-      <c r="A6" s="49"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="39">
+      <c r="A6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="70">
         <v>2</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="64" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5">
-      <c r="A7" s="49"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="12.75">
-      <c r="A8" s="49"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="54"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="25.5">
-      <c r="A9" s="49"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="12.75">
-      <c r="A10" s="49"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="39">
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="70">
         <v>3</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="29" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="64" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75">
-      <c r="A11" s="49"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="54"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="12.75">
-      <c r="A12" s="49"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="54"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="49"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="12.75">
-      <c r="A14" s="49"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="39">
+      <c r="A14" s="34"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="70">
         <v>4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="64" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.5">
-      <c r="A15" s="49"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="54"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="12.75">
-      <c r="A16" s="49"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="54"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" ht="25.5">
-      <c r="A17" s="49"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="55"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="12.75">
-      <c r="A18" s="49"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="39">
+      <c r="A18" s="34"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="70">
         <v>5</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="64" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75">
-      <c r="A19" s="49"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="54"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="12.75">
-      <c r="A20" s="49"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" ht="25.5">
-      <c r="A21" s="49"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="25.5">
-      <c r="A22" s="49"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="39">
+      <c r="A22" s="34"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="70">
         <v>6</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="64" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12.75">
-      <c r="A23" s="49"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="12.75">
-      <c r="A24" s="49"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" ht="25.5">
-      <c r="A25" s="49"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="55"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="12.75">
-      <c r="A26" s="49"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="39">
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="70">
         <v>7</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="64" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25.5">
-      <c r="A27" s="49"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="54"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="12.75">
-      <c r="A28" s="49"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="54"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="25.5">
-      <c r="A29" s="49"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="25.5">
-      <c r="A30" s="49"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="39">
+      <c r="A30" s="34"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="70">
         <v>8</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="29" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H30" s="64" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75">
-      <c r="A31" s="49"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="54"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" ht="12.75">
-      <c r="A32" s="49"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="54"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8" ht="25.5">
-      <c r="A33" s="49"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="55"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="12.75">
-      <c r="A34" s="49"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="39">
+      <c r="A34" s="34"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="70">
         <v>9</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="29" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="64" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="25.5">
-      <c r="A35" s="49"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="54"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="12.75">
-      <c r="A36" s="49"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="54"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8" ht="25.5">
-      <c r="A37" s="50"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="55"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="12.75">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="43">
         <v>10</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="69" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75">
-      <c r="A39" s="49"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="54"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" ht="25.5">
-      <c r="A40" s="49"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="55"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="49"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="45">
+      <c r="A41" s="34"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="41">
         <v>11</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="69" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="55"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" ht="25.5">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="66">
         <v>12</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="48" t="str">
+      <c r="G43" s="33" t="str">
         <f>G38</f>
         <v>Новости сворачиваютя / разворачиваются</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="25.5">
-      <c r="A44" s="49"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="54"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="49"/>
-      <c r="H44" s="57"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="64"/>
     </row>
     <row r="45" spans="1:8" ht="12.75">
-      <c r="A45" s="49"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="54"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="49"/>
-      <c r="H45" s="57"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="64"/>
     </row>
     <row r="46" spans="1:8" ht="25.5">
-      <c r="A46" s="49"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="55"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="62"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="76"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A47" s="49"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="39">
+      <c r="A47" s="34"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="70">
         <v>13</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="29" t="s">
         <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="48" t="s">
+      <c r="G47" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75">
-      <c r="A48" s="49"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="55"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="62"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="76"/>
     </row>
     <row r="49" spans="1:10" ht="12.75">
-      <c r="A49" s="49"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="39">
+      <c r="A49" s="34"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="70">
         <v>14</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="66" t="s">
         <v>285</v>
       </c>
       <c r="E49" s="65" t="s">
@@ -2592,643 +2592,643 @@
       <c r="F49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="48" t="s">
+      <c r="H49" s="33" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="25.5">
-      <c r="A50" s="49"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="55"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="50"/>
-      <c r="H50" s="62"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="76"/>
     </row>
     <row r="51" spans="1:10" ht="12.75">
-      <c r="A51" s="49"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="39">
+      <c r="A51" s="34"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="70">
         <v>15</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="48" t="s">
+      <c r="G51" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="H51" s="33" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="25.5">
-      <c r="A52" s="50"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="55"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:10" ht="25.5">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="43">
         <v>16</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G53" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="H53" s="51" t="s">
+      <c r="H53" s="69" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.75">
-      <c r="A54" s="49"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="54"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:10" ht="25.5">
-      <c r="A55" s="49"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="54"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:10" ht="12.75">
-      <c r="A56" s="49"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="54"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:10" ht="12.75">
-      <c r="A57" s="49"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="54"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:10" ht="25.5">
-      <c r="A58" s="49"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="54"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:10" ht="12.75">
-      <c r="A59" s="49"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="54"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:10" ht="12.75">
-      <c r="A60" s="49"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="55"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="25.5">
-      <c r="A61" s="49"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="45">
+      <c r="A61" s="34"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="41">
         <v>17</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="56" t="s">
+      <c r="E61" s="32" t="s">
         <v>73</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="51" t="s">
+      <c r="G61" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="51" t="s">
+      <c r="H61" s="69" t="s">
         <v>288</v>
       </c>
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" ht="12.75">
-      <c r="A62" s="49"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="54"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="30"/>
       <c r="F62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" ht="38.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="54"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="30"/>
       <c r="F63" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:10" ht="12.75">
-      <c r="A64" s="49"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="54"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" ht="12.75">
-      <c r="A65" s="49"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="54"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="30"/>
       <c r="F65" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" ht="38.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="54"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="30"/>
       <c r="F66" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" ht="12.75">
-      <c r="A67" s="49"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="54"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="30"/>
       <c r="F67" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" ht="12.75">
-      <c r="A68" s="49"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="55"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="31"/>
       <c r="F68" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
     </row>
     <row r="69" spans="1:8" ht="25.5">
-      <c r="A69" s="49"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="45">
+      <c r="A69" s="34"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="41">
         <v>18</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="32" t="s">
         <v>77</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G69" s="51" t="s">
+      <c r="G69" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="H69" s="51" t="s">
+      <c r="H69" s="69" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="12.75">
-      <c r="A70" s="49"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="55"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="31"/>
       <c r="F70" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8" ht="25.5">
-      <c r="A71" s="49"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="45">
+      <c r="A71" s="34"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="41">
         <v>19</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E71" s="56" t="s">
+      <c r="E71" s="32" t="s">
         <v>80</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G71" s="51" t="s">
+      <c r="G71" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="69" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="12.75">
-      <c r="A72" s="49"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="54"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="30"/>
       <c r="F72" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" ht="12.75">
-      <c r="A73" s="49"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="55"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="31"/>
       <c r="F73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="1:8" ht="25.5">
-      <c r="A74" s="49"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="45">
+      <c r="A74" s="34"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="41">
         <v>20</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E74" s="56" t="s">
+      <c r="E74" s="32" t="s">
         <v>289</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G74" s="51" t="s">
+      <c r="G74" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="H74" s="51" t="s">
+      <c r="H74" s="69" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="25.5">
-      <c r="A75" s="49"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="54"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="30"/>
       <c r="F75" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" ht="12.75">
-      <c r="A76" s="49"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="55"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8" ht="25.5">
-      <c r="A77" s="49"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="45">
+      <c r="A77" s="34"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="41">
         <v>21</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E77" s="56" t="s">
+      <c r="E77" s="32" t="s">
         <v>85</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G77" s="51" t="s">
+      <c r="G77" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="51" t="s">
+      <c r="H77" s="69" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="25.5">
-      <c r="A78" s="49"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="54"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="30"/>
       <c r="F78" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" ht="12.75">
-      <c r="A79" s="49"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="54"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="30"/>
       <c r="F79" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" ht="25.5">
-      <c r="A80" s="49"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="54"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" ht="12.75">
-      <c r="A81" s="49"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="54"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="30"/>
       <c r="F81" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" ht="12.75">
-      <c r="A82" s="49"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="54"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" ht="25.5">
-      <c r="A83" s="49"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="54"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" ht="12.75">
-      <c r="A84" s="49"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="54"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="30"/>
       <c r="F84" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" ht="12.75">
-      <c r="A85" s="49"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="55"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="1:8" ht="25.5">
-      <c r="A86" s="49"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="45">
+      <c r="A86" s="34"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="41">
         <v>22</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E86" s="56" t="s">
+      <c r="E86" s="32" t="s">
         <v>93</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G86" s="51" t="str">
+      <c r="G86" s="69" t="str">
         <f t="shared" ref="G86" si="0">G61</f>
         <v>На экране отобразилось оповещение "There is nothing here yet"</v>
       </c>
-      <c r="H86" s="51" t="s">
+      <c r="H86" s="69" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="25.5">
-      <c r="A87" s="49"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="54"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="30"/>
       <c r="F87" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" ht="12.75">
-      <c r="A88" s="49"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="54"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" ht="38.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="54"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="30"/>
       <c r="F89" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" ht="12.75">
-      <c r="A90" s="49"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="54"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" ht="12.75">
-      <c r="A91" s="49"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="54"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8" ht="38.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="54"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="30"/>
       <c r="F92" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:8" ht="12.75">
-      <c r="A93" s="49"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="54"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
     </row>
     <row r="94" spans="1:8" ht="12.75">
-      <c r="A94" s="49"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="55"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="31"/>
       <c r="F94" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
     </row>
     <row r="95" spans="1:8" ht="38.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="59"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="17">
         <v>23</v>
       </c>
@@ -3249,337 +3249,337 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="12.75">
-      <c r="A96" s="49"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="45">
+      <c r="A96" s="34"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="41">
         <v>24</v>
       </c>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E96" s="56" t="s">
+      <c r="E96" s="32" t="s">
         <v>99</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G96" s="51" t="s">
+      <c r="G96" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="H96" s="51" t="s">
+      <c r="H96" s="69" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="25.5">
-      <c r="A97" s="49"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="54"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="30"/>
       <c r="F97" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8" ht="12.75">
-      <c r="A98" s="49"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="47"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="54"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="30"/>
       <c r="F98" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
     </row>
     <row r="99" spans="1:8" ht="12.75">
-      <c r="A99" s="49"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="54"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="30"/>
       <c r="F99" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
     </row>
     <row r="100" spans="1:8" ht="25.5">
-      <c r="A100" s="49"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="54"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="30"/>
       <c r="F100" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
     </row>
     <row r="101" spans="1:8" ht="12.75">
-      <c r="A101" s="49"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="54"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="30"/>
       <c r="F101" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
     </row>
     <row r="102" spans="1:8" ht="12.75">
-      <c r="A102" s="49"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="55"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="31"/>
       <c r="F102" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" ht="12.75">
-      <c r="A103" s="49"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="45">
+      <c r="A103" s="34"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="41">
         <v>25</v>
       </c>
-      <c r="D103" s="28" t="s">
+      <c r="D103" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="E103" s="32" t="s">
         <v>108</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G103" s="51" t="str">
+      <c r="G103" s="69" t="str">
         <f>G86</f>
         <v>На экране отобразилось оповещение "There is nothing here yet"</v>
       </c>
-      <c r="H103" s="51" t="s">
+      <c r="H103" s="69" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="38.25">
-      <c r="A104" s="49"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="54"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="30"/>
       <c r="F104" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" ht="12.75">
-      <c r="A105" s="49"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="54"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="30"/>
       <c r="F105" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" ht="12.75">
-      <c r="A106" s="49"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="47"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="54"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="30"/>
       <c r="F106" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
     </row>
     <row r="107" spans="1:8" ht="38.25">
-      <c r="A107" s="49"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="54"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="30"/>
       <c r="F107" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" ht="12.75">
-      <c r="A108" s="49"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="47"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="54"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" ht="12.75">
-      <c r="A109" s="49"/>
-      <c r="B109" s="59"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="55"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="31"/>
       <c r="F109" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
     </row>
     <row r="110" spans="1:8" ht="25.5">
-      <c r="A110" s="49"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="45">
+      <c r="A110" s="34"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="41">
         <v>26</v>
       </c>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E110" s="56" t="s">
+      <c r="E110" s="32" t="s">
         <v>111</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G110" s="51" t="s">
+      <c r="G110" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H110" s="51" t="s">
+      <c r="H110" s="69" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="12.75">
-      <c r="A111" s="49"/>
-      <c r="B111" s="59"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="54"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="30"/>
       <c r="F111" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G111" s="49"/>
-      <c r="H111" s="49"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8" ht="25.5">
-      <c r="A112" s="49"/>
-      <c r="B112" s="59"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="54"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="30"/>
       <c r="F112" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8" ht="12.75">
-      <c r="A113" s="49"/>
-      <c r="B113" s="59"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="54"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="30"/>
       <c r="F113" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G113" s="49"/>
-      <c r="H113" s="49"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8" ht="12.75">
-      <c r="A114" s="49"/>
-      <c r="B114" s="59"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="55"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="31"/>
       <c r="F114" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
     </row>
     <row r="115" spans="1:8" ht="25.5">
-      <c r="A115" s="49"/>
-      <c r="B115" s="59"/>
-      <c r="C115" s="45">
+      <c r="A115" s="34"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="41">
         <v>27</v>
       </c>
-      <c r="D115" s="28" t="s">
+      <c r="D115" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E115" s="56" t="s">
+      <c r="E115" s="32" t="s">
         <v>114</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G115" s="51" t="s">
+      <c r="G115" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H115" s="51" t="s">
+      <c r="H115" s="69" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="12.75">
-      <c r="A116" s="49"/>
-      <c r="B116" s="59"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="54"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="30"/>
       <c r="F116" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G116" s="49"/>
-      <c r="H116" s="49"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" ht="25.5">
-      <c r="A117" s="49"/>
-      <c r="B117" s="59"/>
-      <c r="C117" s="47"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="54"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="30"/>
       <c r="F117" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8" ht="12.75">
-      <c r="A118" s="49"/>
-      <c r="B118" s="59"/>
-      <c r="C118" s="47"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="54"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="30"/>
       <c r="F118" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G118" s="49"/>
-      <c r="H118" s="49"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8" ht="12.75">
-      <c r="A119" s="49"/>
-      <c r="B119" s="59"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="55"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="31"/>
       <c r="F119" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
     </row>
     <row r="120" spans="1:8" ht="25.5">
-      <c r="A120" s="50"/>
-      <c r="B120" s="60"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="38"/>
       <c r="C120" s="17">
         <v>28</v>
       </c>
@@ -3600,758 +3600,758 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="12.75">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="64" t="s">
+      <c r="B121" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="31">
+      <c r="C121" s="66">
         <v>29</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="E121" s="53" t="s">
+      <c r="E121" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G121" s="52" t="s">
+      <c r="G121" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="H121" s="52" t="s">
+      <c r="H121" s="81" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="25.5">
-      <c r="A122" s="49"/>
-      <c r="B122" s="59"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="54"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="30"/>
       <c r="F122" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G122" s="49"/>
-      <c r="H122" s="49"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" ht="12.75">
-      <c r="A123" s="49"/>
-      <c r="B123" s="59"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="54"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="30"/>
       <c r="F123" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G123" s="49"/>
-      <c r="H123" s="49"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" ht="25.5">
-      <c r="A124" s="49"/>
-      <c r="B124" s="59"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="55"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="31"/>
       <c r="F124" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G124" s="50"/>
-      <c r="H124" s="50"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
     </row>
     <row r="125" spans="1:8" ht="12.75">
-      <c r="A125" s="49"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="39">
+      <c r="A125" s="34"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="70">
         <v>30</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E125" s="72" t="s">
+      <c r="E125" s="39" t="s">
         <v>125</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G125" s="48" t="s">
+      <c r="G125" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H125" s="48" t="s">
+      <c r="H125" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="12.75">
-      <c r="A126" s="49"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="55"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="31"/>
       <c r="F126" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G126" s="50"/>
-      <c r="H126" s="50"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
     </row>
     <row r="127" spans="1:8" ht="12.75">
-      <c r="A127" s="49"/>
-      <c r="B127" s="59"/>
-      <c r="C127" s="39">
+      <c r="A127" s="34"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="70">
         <v>31</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E127" s="53" t="s">
+      <c r="E127" s="29" t="s">
         <v>129</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G127" s="48" t="s">
+      <c r="G127" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H127" s="48" t="s">
+      <c r="H127" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="12.75">
-      <c r="A128" s="49"/>
-      <c r="B128" s="59"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="55"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="31"/>
       <c r="F128" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G128" s="50"/>
-      <c r="H128" s="50"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
     </row>
     <row r="129" spans="1:8" ht="12.75">
-      <c r="A129" s="49"/>
-      <c r="B129" s="59"/>
-      <c r="C129" s="39">
+      <c r="A129" s="34"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="70">
         <v>32</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E129" s="53" t="s">
+      <c r="E129" s="29" t="s">
         <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G129" s="48" t="s">
+      <c r="G129" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="H129" s="48" t="s">
+      <c r="H129" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="12.75">
-      <c r="A130" s="49"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="54"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="30"/>
       <c r="F130" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G130" s="49"/>
-      <c r="H130" s="49"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8" ht="25.5">
-      <c r="A131" s="49"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="54"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="86"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="30"/>
       <c r="F131" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G131" s="49"/>
-      <c r="H131" s="49"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
     </row>
     <row r="132" spans="1:8" ht="12.75">
-      <c r="A132" s="49"/>
-      <c r="B132" s="59"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="55"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="31"/>
       <c r="F132" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G132" s="50"/>
-      <c r="H132" s="50"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
     </row>
     <row r="133" spans="1:8" ht="12.75">
-      <c r="A133" s="49"/>
-      <c r="B133" s="59"/>
-      <c r="C133" s="39">
+      <c r="A133" s="34"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="70">
         <v>33</v>
       </c>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E133" s="53" t="s">
+      <c r="E133" s="29" t="s">
         <v>138</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G133" s="48" t="s">
+      <c r="G133" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="H133" s="48" t="s">
+      <c r="H133" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="12.75">
-      <c r="A134" s="49"/>
-      <c r="B134" s="59"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="54"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="30"/>
       <c r="F134" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="12.75">
-      <c r="A135" s="49"/>
-      <c r="B135" s="59"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="54"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="86"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="30"/>
       <c r="F135" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
     </row>
     <row r="136" spans="1:8" ht="25.5">
-      <c r="A136" s="49"/>
-      <c r="B136" s="59"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="54"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="86"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="30"/>
       <c r="F136" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G136" s="49"/>
-      <c r="H136" s="49"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
     </row>
     <row r="137" spans="1:8" ht="12.75">
-      <c r="A137" s="49"/>
-      <c r="B137" s="59"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="55"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="31"/>
       <c r="F137" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G137" s="50"/>
-      <c r="H137" s="50"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
     </row>
     <row r="138" spans="1:8" ht="12.75">
-      <c r="A138" s="49"/>
-      <c r="B138" s="59"/>
-      <c r="C138" s="39">
+      <c r="A138" s="34"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="70">
         <v>34</v>
       </c>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E138" s="53" t="s">
+      <c r="E138" s="29" t="s">
         <v>144</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G138" s="48" t="s">
+      <c r="G138" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H138" s="48" t="s">
+      <c r="H138" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="12.75">
-      <c r="A139" s="49"/>
-      <c r="B139" s="59"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="54"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="30"/>
       <c r="F139" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G139" s="49"/>
-      <c r="H139" s="49"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
     </row>
     <row r="140" spans="1:8" ht="12.75">
-      <c r="A140" s="49"/>
-      <c r="B140" s="59"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="54"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="86"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="30"/>
       <c r="F140" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G140" s="49"/>
-      <c r="H140" s="49"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="34"/>
     </row>
     <row r="141" spans="1:8" ht="12.75">
-      <c r="A141" s="49"/>
-      <c r="B141" s="59"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="54"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="86"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="30"/>
       <c r="F141" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G141" s="49"/>
-      <c r="H141" s="49"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="34"/>
     </row>
     <row r="142" spans="1:8" ht="12.75">
-      <c r="A142" s="49"/>
-      <c r="B142" s="59"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="55"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="71"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="31"/>
       <c r="F142" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G142" s="50"/>
-      <c r="H142" s="50"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
     </row>
     <row r="143" spans="1:8" ht="12.75">
-      <c r="A143" s="49"/>
-      <c r="B143" s="59"/>
-      <c r="C143" s="39">
+      <c r="A143" s="34"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="70">
         <v>35</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E143" s="53" t="s">
+      <c r="E143" s="29" t="s">
         <v>148</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G143" s="48" t="s">
+      <c r="G143" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="H143" s="48" t="s">
+      <c r="H143" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="12.75">
-      <c r="A144" s="49"/>
-      <c r="B144" s="59"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="54"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="86"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="30"/>
       <c r="F144" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G144" s="49"/>
-      <c r="H144" s="49"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="34"/>
     </row>
     <row r="145" spans="1:8" ht="12.75">
-      <c r="A145" s="49"/>
-      <c r="B145" s="59"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="54"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="86"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="30"/>
       <c r="F145" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G145" s="49"/>
-      <c r="H145" s="49"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
     </row>
     <row r="146" spans="1:8" ht="12.75">
-      <c r="A146" s="49"/>
-      <c r="B146" s="59"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="54"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="86"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="30"/>
       <c r="F146" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G146" s="49"/>
-      <c r="H146" s="49"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
     </row>
     <row r="147" spans="1:8" ht="12.75">
-      <c r="A147" s="49"/>
-      <c r="B147" s="59"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="54"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="86"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="30"/>
       <c r="F147" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G147" s="49"/>
-      <c r="H147" s="49"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="34"/>
     </row>
     <row r="148" spans="1:8" ht="12.75">
-      <c r="A148" s="49"/>
-      <c r="B148" s="59"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="54"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="86"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="30"/>
       <c r="F148" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G148" s="49"/>
-      <c r="H148" s="49"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
     </row>
     <row r="149" spans="1:8" ht="12.75">
-      <c r="A149" s="49"/>
-      <c r="B149" s="59"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="55"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="71"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="31"/>
       <c r="F149" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G149" s="50"/>
-      <c r="H149" s="50"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="35"/>
     </row>
     <row r="150" spans="1:8" ht="12.75">
-      <c r="A150" s="49"/>
-      <c r="B150" s="59"/>
-      <c r="C150" s="39">
+      <c r="A150" s="34"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="70">
         <v>36</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E150" s="53" t="s">
+      <c r="E150" s="29" t="s">
         <v>155</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G150" s="48" t="s">
+      <c r="G150" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="H150" s="48" t="s">
-        <v>288</v>
+      <c r="H150" s="33" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="12.75">
-      <c r="A151" s="49"/>
-      <c r="B151" s="59"/>
-      <c r="C151" s="40"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="54"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="37"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="67"/>
+      <c r="E151" s="30"/>
       <c r="F151" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G151" s="49"/>
-      <c r="H151" s="49"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="34"/>
     </row>
     <row r="152" spans="1:8" ht="12.75">
-      <c r="A152" s="49"/>
-      <c r="B152" s="59"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="54"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="86"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="30"/>
       <c r="F152" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G152" s="49"/>
-      <c r="H152" s="49"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="34"/>
     </row>
     <row r="153" spans="1:8" ht="12.75">
-      <c r="A153" s="49"/>
-      <c r="B153" s="59"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="54"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="86"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="30"/>
       <c r="F153" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G153" s="49"/>
-      <c r="H153" s="49"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="34"/>
     </row>
     <row r="154" spans="1:8" ht="25.5">
-      <c r="A154" s="49"/>
-      <c r="B154" s="59"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="54"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="30"/>
       <c r="F154" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G154" s="49"/>
-      <c r="H154" s="49"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="34"/>
     </row>
     <row r="155" spans="1:8" ht="12.75">
-      <c r="A155" s="49"/>
-      <c r="B155" s="59"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="54"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="86"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="30"/>
       <c r="F155" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G155" s="49"/>
-      <c r="H155" s="49"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="34"/>
     </row>
     <row r="156" spans="1:8" ht="12.75">
-      <c r="A156" s="49"/>
-      <c r="B156" s="59"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="54"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="86"/>
+      <c r="D156" s="67"/>
+      <c r="E156" s="30"/>
       <c r="F156" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G156" s="49"/>
-      <c r="H156" s="49"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="34"/>
     </row>
     <row r="157" spans="1:8" ht="12.75">
-      <c r="A157" s="49"/>
-      <c r="B157" s="59"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="55"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="31"/>
       <c r="F157" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G157" s="50"/>
-      <c r="H157" s="50"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="35"/>
     </row>
     <row r="158" spans="1:8" ht="12.75">
-      <c r="A158" s="49"/>
-      <c r="B158" s="59"/>
-      <c r="C158" s="39">
+      <c r="A158" s="34"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="70">
         <v>37</v>
       </c>
-      <c r="D158" s="31" t="s">
+      <c r="D158" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E158" s="53" t="s">
+      <c r="E158" s="29" t="s">
         <v>161</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G158" s="48" t="s">
+      <c r="G158" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="H158" s="48" t="s">
+      <c r="H158" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="12.75">
-      <c r="A159" s="49"/>
-      <c r="B159" s="59"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="54"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="30"/>
       <c r="F159" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G159" s="49"/>
-      <c r="H159" s="49"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="34"/>
     </row>
     <row r="160" spans="1:8" ht="12.75">
-      <c r="A160" s="49"/>
-      <c r="B160" s="59"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="32"/>
-      <c r="E160" s="54"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="37"/>
+      <c r="C160" s="86"/>
+      <c r="D160" s="67"/>
+      <c r="E160" s="30"/>
       <c r="F160" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G160" s="49"/>
-      <c r="H160" s="49"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="34"/>
     </row>
     <row r="161" spans="1:8" ht="12.75">
-      <c r="A161" s="49"/>
-      <c r="B161" s="59"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="54"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="67"/>
+      <c r="E161" s="30"/>
       <c r="F161" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G161" s="49"/>
-      <c r="H161" s="49"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="34"/>
     </row>
     <row r="162" spans="1:8" ht="12.75">
-      <c r="A162" s="49"/>
-      <c r="B162" s="59"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="54"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="37"/>
+      <c r="C162" s="86"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="30"/>
       <c r="F162" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G162" s="49"/>
-      <c r="H162" s="49"/>
+      <c r="G162" s="34"/>
+      <c r="H162" s="34"/>
     </row>
     <row r="163" spans="1:8" ht="12.75">
-      <c r="A163" s="49"/>
-      <c r="B163" s="59"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="54"/>
+      <c r="A163" s="34"/>
+      <c r="B163" s="37"/>
+      <c r="C163" s="86"/>
+      <c r="D163" s="67"/>
+      <c r="E163" s="30"/>
       <c r="F163" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G163" s="49"/>
-      <c r="H163" s="49"/>
+      <c r="G163" s="34"/>
+      <c r="H163" s="34"/>
     </row>
     <row r="164" spans="1:8" ht="12.75">
-      <c r="A164" s="49"/>
-      <c r="B164" s="59"/>
-      <c r="C164" s="41"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="55"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="31"/>
       <c r="F164" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G164" s="50"/>
-      <c r="H164" s="50"/>
+      <c r="G164" s="35"/>
+      <c r="H164" s="35"/>
     </row>
     <row r="165" spans="1:8" ht="12.75">
-      <c r="A165" s="49"/>
-      <c r="B165" s="59"/>
-      <c r="C165" s="39">
+      <c r="A165" s="34"/>
+      <c r="B165" s="37"/>
+      <c r="C165" s="70">
         <v>38</v>
       </c>
-      <c r="D165" s="31" t="s">
+      <c r="D165" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E165" s="53" t="s">
+      <c r="E165" s="29" t="s">
         <v>166</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G165" s="48" t="s">
+      <c r="G165" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="H165" s="48" t="s">
+      <c r="H165" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="12.75">
-      <c r="A166" s="49"/>
-      <c r="B166" s="59"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="54"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="86"/>
+      <c r="D166" s="67"/>
+      <c r="E166" s="30"/>
       <c r="F166" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G166" s="49"/>
-      <c r="H166" s="49"/>
+      <c r="G166" s="34"/>
+      <c r="H166" s="34"/>
     </row>
     <row r="167" spans="1:8" ht="12.75">
-      <c r="A167" s="49"/>
-      <c r="B167" s="59"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="54"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="86"/>
+      <c r="D167" s="67"/>
+      <c r="E167" s="30"/>
       <c r="F167" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G167" s="49"/>
-      <c r="H167" s="49"/>
+      <c r="G167" s="34"/>
+      <c r="H167" s="34"/>
     </row>
     <row r="168" spans="1:8" ht="12.75">
-      <c r="A168" s="49"/>
-      <c r="B168" s="59"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="54"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="37"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="67"/>
+      <c r="E168" s="30"/>
       <c r="F168" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G168" s="49"/>
-      <c r="H168" s="49"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="34"/>
     </row>
     <row r="169" spans="1:8" ht="12.75">
-      <c r="A169" s="49"/>
-      <c r="B169" s="59"/>
-      <c r="C169" s="40"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="54"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="30"/>
       <c r="F169" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G169" s="49"/>
-      <c r="H169" s="49"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="34"/>
     </row>
     <row r="170" spans="1:8" ht="12.75">
-      <c r="A170" s="49"/>
-      <c r="B170" s="59"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="55"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="37"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="31"/>
       <c r="F170" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G170" s="50"/>
-      <c r="H170" s="50"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="35"/>
     </row>
     <row r="171" spans="1:8" ht="12.75">
-      <c r="A171" s="49"/>
-      <c r="B171" s="59"/>
-      <c r="C171" s="39">
+      <c r="A171" s="34"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="70">
         <v>39</v>
       </c>
-      <c r="D171" s="31" t="s">
+      <c r="D171" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E171" s="53" t="s">
+      <c r="E171" s="29" t="s">
         <v>172</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G171" s="48" t="s">
+      <c r="G171" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="H171" s="48" t="s">
+      <c r="H171" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="25.5">
-      <c r="A172" s="49"/>
-      <c r="B172" s="59"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="54"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="37"/>
+      <c r="C172" s="86"/>
+      <c r="D172" s="67"/>
+      <c r="E172" s="30"/>
       <c r="F172" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G172" s="49"/>
-      <c r="H172" s="49"/>
+      <c r="G172" s="34"/>
+      <c r="H172" s="34"/>
     </row>
     <row r="173" spans="1:8" ht="12.75">
-      <c r="A173" s="49"/>
-      <c r="B173" s="59"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="55"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="37"/>
+      <c r="C173" s="71"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="31"/>
       <c r="F173" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G173" s="50"/>
-      <c r="H173" s="50"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="35"/>
     </row>
     <row r="174" spans="1:8" ht="25.5">
-      <c r="A174" s="49"/>
-      <c r="B174" s="59"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="37"/>
       <c r="C174" s="16">
         <v>40</v>
       </c>
@@ -4372,1834 +4372,1834 @@
       </c>
     </row>
     <row r="175" spans="1:8" ht="12.75">
-      <c r="A175" s="49"/>
-      <c r="B175" s="59"/>
-      <c r="C175" s="39">
+      <c r="A175" s="34"/>
+      <c r="B175" s="37"/>
+      <c r="C175" s="70">
         <v>41</v>
       </c>
-      <c r="D175" s="31" t="s">
+      <c r="D175" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E175" s="53" t="s">
+      <c r="E175" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F175" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G175" s="48" t="s">
+      <c r="G175" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="H175" s="48" t="s">
+      <c r="H175" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="12.75">
-      <c r="A176" s="49"/>
-      <c r="B176" s="59"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="32"/>
-      <c r="E176" s="54"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="37"/>
+      <c r="C176" s="86"/>
+      <c r="D176" s="67"/>
+      <c r="E176" s="30"/>
       <c r="F176" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G176" s="49"/>
-      <c r="H176" s="49"/>
+      <c r="G176" s="34"/>
+      <c r="H176" s="34"/>
     </row>
     <row r="177" spans="1:8" ht="12.75">
-      <c r="A177" s="49"/>
-      <c r="B177" s="59"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="32"/>
-      <c r="E177" s="54"/>
+      <c r="A177" s="34"/>
+      <c r="B177" s="37"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="30"/>
       <c r="F177" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G177" s="49"/>
-      <c r="H177" s="49"/>
+      <c r="G177" s="34"/>
+      <c r="H177" s="34"/>
     </row>
     <row r="178" spans="1:8" ht="12.75">
-      <c r="A178" s="49"/>
-      <c r="B178" s="59"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="54"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="37"/>
+      <c r="C178" s="86"/>
+      <c r="D178" s="67"/>
+      <c r="E178" s="30"/>
       <c r="F178" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G178" s="49"/>
-      <c r="H178" s="49"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="34"/>
     </row>
     <row r="179" spans="1:8" ht="12.75">
-      <c r="A179" s="49"/>
-      <c r="B179" s="59"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="32"/>
-      <c r="E179" s="54"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="37"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="67"/>
+      <c r="E179" s="30"/>
       <c r="F179" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G179" s="49"/>
-      <c r="H179" s="49"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="34"/>
     </row>
     <row r="180" spans="1:8" ht="12.75">
-      <c r="A180" s="49"/>
-      <c r="B180" s="59"/>
-      <c r="C180" s="41"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="55"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="37"/>
+      <c r="C180" s="71"/>
+      <c r="D180" s="68"/>
+      <c r="E180" s="31"/>
       <c r="F180" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G180" s="50"/>
-      <c r="H180" s="50"/>
+      <c r="G180" s="35"/>
+      <c r="H180" s="35"/>
     </row>
     <row r="181" spans="1:8" ht="12.75">
-      <c r="A181" s="49"/>
-      <c r="B181" s="59"/>
-      <c r="C181" s="39">
+      <c r="A181" s="34"/>
+      <c r="B181" s="37"/>
+      <c r="C181" s="70">
         <v>42</v>
       </c>
-      <c r="D181" s="31" t="s">
+      <c r="D181" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E181" s="53" t="s">
+      <c r="E181" s="29" t="s">
         <v>186</v>
       </c>
       <c r="F181" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G181" s="48" t="s">
+      <c r="G181" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="H181" s="48" t="s">
+      <c r="H181" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="12.75">
-      <c r="A182" s="49"/>
-      <c r="B182" s="59"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="54"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="37"/>
+      <c r="C182" s="86"/>
+      <c r="D182" s="67"/>
+      <c r="E182" s="30"/>
       <c r="F182" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G182" s="49"/>
-      <c r="H182" s="49"/>
+      <c r="G182" s="34"/>
+      <c r="H182" s="34"/>
     </row>
     <row r="183" spans="1:8" ht="12.75">
-      <c r="A183" s="49"/>
-      <c r="B183" s="59"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="54"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="37"/>
+      <c r="C183" s="86"/>
+      <c r="D183" s="67"/>
+      <c r="E183" s="30"/>
       <c r="F183" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G183" s="49"/>
-      <c r="H183" s="49"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="34"/>
     </row>
     <row r="184" spans="1:8" ht="12.75">
-      <c r="A184" s="49"/>
-      <c r="B184" s="59"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="32"/>
-      <c r="E184" s="54"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="37"/>
+      <c r="C184" s="86"/>
+      <c r="D184" s="67"/>
+      <c r="E184" s="30"/>
       <c r="F184" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G184" s="49"/>
-      <c r="H184" s="49"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="34"/>
     </row>
     <row r="185" spans="1:8" ht="25.5">
-      <c r="A185" s="49"/>
-      <c r="B185" s="59"/>
-      <c r="C185" s="40"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="54"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="37"/>
+      <c r="C185" s="86"/>
+      <c r="D185" s="67"/>
+      <c r="E185" s="30"/>
       <c r="F185" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G185" s="49"/>
-      <c r="H185" s="49"/>
+      <c r="G185" s="34"/>
+      <c r="H185" s="34"/>
     </row>
     <row r="186" spans="1:8" ht="12.75">
-      <c r="A186" s="49"/>
-      <c r="B186" s="59"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="54"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="37"/>
+      <c r="C186" s="86"/>
+      <c r="D186" s="67"/>
+      <c r="E186" s="30"/>
       <c r="F186" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G186" s="49"/>
-      <c r="H186" s="49"/>
+      <c r="G186" s="34"/>
+      <c r="H186" s="34"/>
     </row>
     <row r="187" spans="1:8" ht="25.5">
-      <c r="A187" s="49"/>
-      <c r="B187" s="59"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="54"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="37"/>
+      <c r="C187" s="86"/>
+      <c r="D187" s="67"/>
+      <c r="E187" s="30"/>
       <c r="F187" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G187" s="49"/>
-      <c r="H187" s="49"/>
+      <c r="G187" s="34"/>
+      <c r="H187" s="34"/>
     </row>
     <row r="188" spans="1:8" ht="12.75">
-      <c r="A188" s="49"/>
-      <c r="B188" s="59"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="32"/>
-      <c r="E188" s="54"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="37"/>
+      <c r="C188" s="86"/>
+      <c r="D188" s="67"/>
+      <c r="E188" s="30"/>
       <c r="F188" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G188" s="49"/>
-      <c r="H188" s="49"/>
+      <c r="G188" s="34"/>
+      <c r="H188" s="34"/>
     </row>
     <row r="189" spans="1:8" ht="12.75">
-      <c r="A189" s="49"/>
-      <c r="B189" s="59"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="54"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="37"/>
+      <c r="C189" s="86"/>
+      <c r="D189" s="67"/>
+      <c r="E189" s="30"/>
       <c r="F189" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G189" s="49"/>
-      <c r="H189" s="49"/>
+      <c r="G189" s="34"/>
+      <c r="H189" s="34"/>
     </row>
     <row r="190" spans="1:8" ht="12.75">
-      <c r="A190" s="49"/>
-      <c r="B190" s="59"/>
-      <c r="C190" s="41"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="55"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="37"/>
+      <c r="C190" s="71"/>
+      <c r="D190" s="68"/>
+      <c r="E190" s="31"/>
       <c r="F190" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G190" s="50"/>
-      <c r="H190" s="50"/>
+      <c r="G190" s="35"/>
+      <c r="H190" s="35"/>
     </row>
     <row r="191" spans="1:8" ht="12.75">
-      <c r="A191" s="49"/>
-      <c r="B191" s="59"/>
-      <c r="C191" s="39">
+      <c r="A191" s="34"/>
+      <c r="B191" s="37"/>
+      <c r="C191" s="70">
         <v>43</v>
       </c>
-      <c r="D191" s="31" t="s">
+      <c r="D191" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E191" s="53" t="s">
+      <c r="E191" s="29" t="s">
         <v>194</v>
       </c>
       <c r="F191" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G191" s="48" t="s">
+      <c r="G191" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H191" s="48" t="s">
+      <c r="H191" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="12.75">
-      <c r="A192" s="49"/>
-      <c r="B192" s="59"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="54"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="37"/>
+      <c r="C192" s="86"/>
+      <c r="D192" s="67"/>
+      <c r="E192" s="30"/>
       <c r="F192" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G192" s="49"/>
-      <c r="H192" s="49"/>
+      <c r="G192" s="34"/>
+      <c r="H192" s="34"/>
     </row>
     <row r="193" spans="1:8" ht="12.75">
-      <c r="A193" s="49"/>
-      <c r="B193" s="59"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="54"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="86"/>
+      <c r="D193" s="67"/>
+      <c r="E193" s="30"/>
       <c r="F193" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G193" s="49"/>
-      <c r="H193" s="49"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="34"/>
     </row>
     <row r="194" spans="1:8" ht="12.75">
-      <c r="A194" s="49"/>
-      <c r="B194" s="59"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="54"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="86"/>
+      <c r="D194" s="67"/>
+      <c r="E194" s="30"/>
       <c r="F194" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G194" s="49"/>
-      <c r="H194" s="49"/>
+      <c r="G194" s="34"/>
+      <c r="H194" s="34"/>
     </row>
     <row r="195" spans="1:8" ht="25.5">
-      <c r="A195" s="49"/>
-      <c r="B195" s="59"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="54"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="86"/>
+      <c r="D195" s="67"/>
+      <c r="E195" s="30"/>
       <c r="F195" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G195" s="49"/>
-      <c r="H195" s="49"/>
+      <c r="G195" s="34"/>
+      <c r="H195" s="34"/>
     </row>
     <row r="196" spans="1:8" ht="12.75">
-      <c r="A196" s="49"/>
-      <c r="B196" s="59"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="54"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="86"/>
+      <c r="D196" s="67"/>
+      <c r="E196" s="30"/>
       <c r="F196" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G196" s="49"/>
-      <c r="H196" s="49"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="34"/>
     </row>
     <row r="197" spans="1:8" ht="25.5">
-      <c r="A197" s="49"/>
-      <c r="B197" s="59"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="54"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="86"/>
+      <c r="D197" s="67"/>
+      <c r="E197" s="30"/>
       <c r="F197" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G197" s="49"/>
-      <c r="H197" s="49"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
     </row>
     <row r="198" spans="1:8" ht="12.75">
-      <c r="A198" s="49"/>
-      <c r="B198" s="59"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="54"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="37"/>
+      <c r="C198" s="86"/>
+      <c r="D198" s="67"/>
+      <c r="E198" s="30"/>
       <c r="F198" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G198" s="49"/>
-      <c r="H198" s="49"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="34"/>
     </row>
     <row r="199" spans="1:8" ht="12.75">
-      <c r="A199" s="49"/>
-      <c r="B199" s="59"/>
-      <c r="C199" s="41"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="55"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="37"/>
+      <c r="C199" s="71"/>
+      <c r="D199" s="68"/>
+      <c r="E199" s="31"/>
       <c r="F199" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G199" s="50"/>
-      <c r="H199" s="50"/>
+      <c r="G199" s="35"/>
+      <c r="H199" s="35"/>
     </row>
     <row r="200" spans="1:8" ht="12.75">
-      <c r="A200" s="49"/>
-      <c r="B200" s="59"/>
-      <c r="C200" s="39">
+      <c r="A200" s="34"/>
+      <c r="B200" s="37"/>
+      <c r="C200" s="70">
         <v>44</v>
       </c>
-      <c r="D200" s="31" t="s">
+      <c r="D200" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E200" s="53" t="s">
+      <c r="E200" s="29" t="s">
         <v>194</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G200" s="48" t="s">
+      <c r="G200" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H200" s="48" t="s">
+      <c r="H200" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="12.75">
-      <c r="A201" s="49"/>
-      <c r="B201" s="59"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="54"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="37"/>
+      <c r="C201" s="86"/>
+      <c r="D201" s="67"/>
+      <c r="E201" s="30"/>
       <c r="F201" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G201" s="49"/>
-      <c r="H201" s="49"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="34"/>
     </row>
     <row r="202" spans="1:8" ht="12.75">
-      <c r="A202" s="49"/>
-      <c r="B202" s="59"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="54"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="37"/>
+      <c r="C202" s="86"/>
+      <c r="D202" s="67"/>
+      <c r="E202" s="30"/>
       <c r="F202" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G202" s="49"/>
-      <c r="H202" s="49"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="34"/>
     </row>
     <row r="203" spans="1:8" ht="12.75">
-      <c r="A203" s="49"/>
-      <c r="B203" s="59"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="54"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="86"/>
+      <c r="D203" s="67"/>
+      <c r="E203" s="30"/>
       <c r="F203" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G203" s="49"/>
-      <c r="H203" s="49"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="34"/>
     </row>
     <row r="204" spans="1:8" ht="25.5">
-      <c r="A204" s="49"/>
-      <c r="B204" s="59"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="54"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="37"/>
+      <c r="C204" s="86"/>
+      <c r="D204" s="67"/>
+      <c r="E204" s="30"/>
       <c r="F204" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G204" s="49"/>
-      <c r="H204" s="49"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="34"/>
     </row>
     <row r="205" spans="1:8" ht="12.75">
-      <c r="A205" s="49"/>
-      <c r="B205" s="59"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="32"/>
-      <c r="E205" s="54"/>
+      <c r="A205" s="34"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="86"/>
+      <c r="D205" s="67"/>
+      <c r="E205" s="30"/>
       <c r="F205" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G205" s="49"/>
-      <c r="H205" s="49"/>
+      <c r="G205" s="34"/>
+      <c r="H205" s="34"/>
     </row>
     <row r="206" spans="1:8" ht="25.5">
-      <c r="A206" s="49"/>
-      <c r="B206" s="59"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="54"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="37"/>
+      <c r="C206" s="86"/>
+      <c r="D206" s="67"/>
+      <c r="E206" s="30"/>
       <c r="F206" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G206" s="49"/>
-      <c r="H206" s="49"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="34"/>
     </row>
     <row r="207" spans="1:8" ht="12.75">
-      <c r="A207" s="49"/>
-      <c r="B207" s="59"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="32"/>
-      <c r="E207" s="54"/>
+      <c r="A207" s="34"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="86"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="30"/>
       <c r="F207" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G207" s="49"/>
-      <c r="H207" s="49"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="34"/>
     </row>
     <row r="208" spans="1:8" ht="12.75">
-      <c r="A208" s="49"/>
-      <c r="B208" s="59"/>
-      <c r="C208" s="41"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="55"/>
+      <c r="A208" s="34"/>
+      <c r="B208" s="37"/>
+      <c r="C208" s="71"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="31"/>
       <c r="F208" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G208" s="50"/>
-      <c r="H208" s="50"/>
+      <c r="G208" s="35"/>
+      <c r="H208" s="35"/>
     </row>
     <row r="209" spans="1:8" ht="12.75">
-      <c r="A209" s="49"/>
-      <c r="B209" s="59"/>
-      <c r="C209" s="39">
+      <c r="A209" s="34"/>
+      <c r="B209" s="37"/>
+      <c r="C209" s="70">
         <v>45</v>
       </c>
-      <c r="D209" s="31" t="s">
+      <c r="D209" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E209" s="53" t="s">
+      <c r="E209" s="29" t="s">
         <v>304</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G209" s="48" t="s">
+      <c r="G209" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="H209" s="48" t="s">
+      <c r="H209" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="12.75">
-      <c r="A210" s="49"/>
-      <c r="B210" s="59"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="32"/>
-      <c r="E210" s="54"/>
+      <c r="A210" s="34"/>
+      <c r="B210" s="37"/>
+      <c r="C210" s="86"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="30"/>
       <c r="F210" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G210" s="49"/>
-      <c r="H210" s="49"/>
+      <c r="G210" s="34"/>
+      <c r="H210" s="34"/>
     </row>
     <row r="211" spans="1:8" ht="12.75">
-      <c r="A211" s="49"/>
-      <c r="B211" s="59"/>
-      <c r="C211" s="41"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="55"/>
+      <c r="A211" s="34"/>
+      <c r="B211" s="37"/>
+      <c r="C211" s="71"/>
+      <c r="D211" s="68"/>
+      <c r="E211" s="31"/>
       <c r="F211" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G211" s="50"/>
-      <c r="H211" s="50"/>
+      <c r="G211" s="35"/>
+      <c r="H211" s="35"/>
     </row>
     <row r="212" spans="1:8" ht="12.75">
-      <c r="A212" s="49"/>
-      <c r="B212" s="59"/>
-      <c r="C212" s="39">
+      <c r="A212" s="34"/>
+      <c r="B212" s="37"/>
+      <c r="C212" s="70">
         <v>46</v>
       </c>
-      <c r="D212" s="31" t="s">
+      <c r="D212" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E212" s="53" t="s">
+      <c r="E212" s="29" t="s">
         <v>305</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G212" s="48" t="s">
+      <c r="G212" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="H212" s="48" t="s">
+      <c r="H212" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="12.75">
-      <c r="A213" s="49"/>
-      <c r="B213" s="59"/>
-      <c r="C213" s="40"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="54"/>
+      <c r="A213" s="34"/>
+      <c r="B213" s="37"/>
+      <c r="C213" s="86"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="30"/>
       <c r="F213" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G213" s="49"/>
-      <c r="H213" s="49"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="34"/>
     </row>
     <row r="214" spans="1:8" ht="12.75">
-      <c r="A214" s="49"/>
-      <c r="B214" s="59"/>
-      <c r="C214" s="41"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="55"/>
+      <c r="A214" s="34"/>
+      <c r="B214" s="37"/>
+      <c r="C214" s="71"/>
+      <c r="D214" s="68"/>
+      <c r="E214" s="31"/>
       <c r="F214" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G214" s="50"/>
-      <c r="H214" s="50"/>
+      <c r="G214" s="35"/>
+      <c r="H214" s="35"/>
     </row>
     <row r="215" spans="1:8" ht="12.75">
-      <c r="A215" s="49"/>
-      <c r="B215" s="59"/>
-      <c r="C215" s="39">
+      <c r="A215" s="34"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="70">
         <v>47</v>
       </c>
-      <c r="D215" s="31" t="s">
+      <c r="D215" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E215" s="53" t="s">
+      <c r="E215" s="29" t="s">
         <v>202</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G215" s="48" t="s">
+      <c r="G215" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="H215" s="48" t="s">
+      <c r="H215" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="12.75">
-      <c r="A216" s="49"/>
-      <c r="B216" s="59"/>
-      <c r="C216" s="40"/>
-      <c r="D216" s="32"/>
-      <c r="E216" s="54"/>
+      <c r="A216" s="34"/>
+      <c r="B216" s="37"/>
+      <c r="C216" s="86"/>
+      <c r="D216" s="67"/>
+      <c r="E216" s="30"/>
       <c r="F216" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G216" s="49"/>
-      <c r="H216" s="49"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="34"/>
     </row>
     <row r="217" spans="1:8" ht="25.5">
-      <c r="A217" s="49"/>
-      <c r="B217" s="59"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="32"/>
-      <c r="E217" s="54"/>
+      <c r="A217" s="34"/>
+      <c r="B217" s="37"/>
+      <c r="C217" s="86"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="30"/>
       <c r="F217" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G217" s="49"/>
-      <c r="H217" s="49"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="34"/>
     </row>
     <row r="218" spans="1:8" ht="12.75">
-      <c r="A218" s="49"/>
-      <c r="B218" s="59"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="54"/>
+      <c r="A218" s="34"/>
+      <c r="B218" s="37"/>
+      <c r="C218" s="86"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="30"/>
       <c r="F218" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G218" s="49"/>
-      <c r="H218" s="49"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="34"/>
     </row>
     <row r="219" spans="1:8" ht="25.5">
-      <c r="A219" s="49"/>
-      <c r="B219" s="59"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="54"/>
+      <c r="A219" s="34"/>
+      <c r="B219" s="37"/>
+      <c r="C219" s="86"/>
+      <c r="D219" s="67"/>
+      <c r="E219" s="30"/>
       <c r="F219" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G219" s="49"/>
-      <c r="H219" s="49"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="34"/>
     </row>
     <row r="220" spans="1:8" ht="12.75">
-      <c r="A220" s="49"/>
-      <c r="B220" s="59"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="32"/>
-      <c r="E220" s="54"/>
+      <c r="A220" s="34"/>
+      <c r="B220" s="37"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="67"/>
+      <c r="E220" s="30"/>
       <c r="F220" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G220" s="49"/>
-      <c r="H220" s="49"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="34"/>
     </row>
     <row r="221" spans="1:8" ht="12.75">
-      <c r="A221" s="49"/>
-      <c r="B221" s="59"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="32"/>
-      <c r="E221" s="54"/>
+      <c r="A221" s="34"/>
+      <c r="B221" s="37"/>
+      <c r="C221" s="86"/>
+      <c r="D221" s="67"/>
+      <c r="E221" s="30"/>
       <c r="F221" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G221" s="49"/>
-      <c r="H221" s="49"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="34"/>
     </row>
     <row r="222" spans="1:8" ht="12.75">
-      <c r="A222" s="49"/>
-      <c r="B222" s="59"/>
-      <c r="C222" s="41"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="55"/>
+      <c r="A222" s="34"/>
+      <c r="B222" s="37"/>
+      <c r="C222" s="71"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="31"/>
       <c r="F222" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G222" s="50"/>
-      <c r="H222" s="50"/>
+      <c r="G222" s="35"/>
+      <c r="H222" s="35"/>
     </row>
     <row r="223" spans="1:8" ht="12.75">
-      <c r="A223" s="49"/>
-      <c r="B223" s="59"/>
-      <c r="C223" s="39">
+      <c r="A223" s="34"/>
+      <c r="B223" s="37"/>
+      <c r="C223" s="70">
         <v>48</v>
       </c>
-      <c r="D223" s="31" t="s">
+      <c r="D223" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E223" s="53" t="s">
+      <c r="E223" s="29" t="s">
         <v>208</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G223" s="48" t="s">
+      <c r="G223" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="H223" s="48" t="s">
+      <c r="H223" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="12.75">
-      <c r="A224" s="49"/>
-      <c r="B224" s="59"/>
-      <c r="C224" s="41"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="55"/>
+      <c r="A224" s="34"/>
+      <c r="B224" s="37"/>
+      <c r="C224" s="71"/>
+      <c r="D224" s="68"/>
+      <c r="E224" s="31"/>
       <c r="F224" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G224" s="50"/>
-      <c r="H224" s="50"/>
+      <c r="G224" s="35"/>
+      <c r="H224" s="35"/>
     </row>
     <row r="225" spans="1:8" ht="12.75">
-      <c r="A225" s="49"/>
-      <c r="B225" s="59"/>
-      <c r="C225" s="39">
+      <c r="A225" s="34"/>
+      <c r="B225" s="37"/>
+      <c r="C225" s="70">
         <v>49</v>
       </c>
-      <c r="D225" s="31" t="s">
+      <c r="D225" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E225" s="53" t="s">
+      <c r="E225" s="29" t="s">
         <v>210</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G225" s="48" t="s">
+      <c r="G225" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H225" s="48" t="s">
+      <c r="H225" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="12.75">
-      <c r="A226" s="49"/>
-      <c r="B226" s="59"/>
-      <c r="C226" s="40"/>
-      <c r="D226" s="32"/>
-      <c r="E226" s="54"/>
+      <c r="A226" s="34"/>
+      <c r="B226" s="37"/>
+      <c r="C226" s="86"/>
+      <c r="D226" s="67"/>
+      <c r="E226" s="30"/>
       <c r="F226" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G226" s="49"/>
-      <c r="H226" s="49"/>
+      <c r="G226" s="34"/>
+      <c r="H226" s="34"/>
     </row>
     <row r="227" spans="1:8" ht="12.75">
-      <c r="A227" s="49"/>
-      <c r="B227" s="59"/>
-      <c r="C227" s="40"/>
-      <c r="D227" s="32"/>
-      <c r="E227" s="54"/>
+      <c r="A227" s="34"/>
+      <c r="B227" s="37"/>
+      <c r="C227" s="86"/>
+      <c r="D227" s="67"/>
+      <c r="E227" s="30"/>
       <c r="F227" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G227" s="49"/>
-      <c r="H227" s="49"/>
+      <c r="G227" s="34"/>
+      <c r="H227" s="34"/>
     </row>
     <row r="228" spans="1:8" ht="12.75">
-      <c r="A228" s="49"/>
-      <c r="B228" s="59"/>
-      <c r="C228" s="41"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="55"/>
+      <c r="A228" s="34"/>
+      <c r="B228" s="37"/>
+      <c r="C228" s="71"/>
+      <c r="D228" s="68"/>
+      <c r="E228" s="31"/>
       <c r="F228" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G228" s="50"/>
-      <c r="H228" s="50"/>
+      <c r="G228" s="35"/>
+      <c r="H228" s="35"/>
     </row>
     <row r="229" spans="1:8" ht="12.75">
-      <c r="A229" s="49"/>
-      <c r="B229" s="59"/>
-      <c r="C229" s="39">
+      <c r="A229" s="34"/>
+      <c r="B229" s="37"/>
+      <c r="C229" s="70">
         <v>50</v>
       </c>
-      <c r="D229" s="31" t="s">
+      <c r="D229" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E229" s="53" t="s">
+      <c r="E229" s="29" t="s">
         <v>213</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G229" s="48" t="str">
+      <c r="G229" s="33" t="str">
         <f>G225</f>
         <v>На экране отобразилось оповещение "Fill empty fields"</v>
       </c>
-      <c r="H229" s="48" t="s">
+      <c r="H229" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="12.75">
-      <c r="A230" s="49"/>
-      <c r="B230" s="59"/>
-      <c r="C230" s="40"/>
-      <c r="D230" s="32"/>
-      <c r="E230" s="54"/>
+      <c r="A230" s="34"/>
+      <c r="B230" s="37"/>
+      <c r="C230" s="86"/>
+      <c r="D230" s="67"/>
+      <c r="E230" s="30"/>
       <c r="F230" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G230" s="49"/>
-      <c r="H230" s="49"/>
+      <c r="G230" s="34"/>
+      <c r="H230" s="34"/>
     </row>
     <row r="231" spans="1:8" ht="12.75">
-      <c r="A231" s="49"/>
-      <c r="B231" s="59"/>
-      <c r="C231" s="40"/>
-      <c r="D231" s="32"/>
-      <c r="E231" s="54"/>
+      <c r="A231" s="34"/>
+      <c r="B231" s="37"/>
+      <c r="C231" s="86"/>
+      <c r="D231" s="67"/>
+      <c r="E231" s="30"/>
       <c r="F231" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G231" s="49"/>
-      <c r="H231" s="49"/>
+      <c r="G231" s="34"/>
+      <c r="H231" s="34"/>
     </row>
     <row r="232" spans="1:8" ht="12.75">
-      <c r="A232" s="49"/>
-      <c r="B232" s="59"/>
-      <c r="C232" s="40"/>
-      <c r="D232" s="32"/>
-      <c r="E232" s="54"/>
+      <c r="A232" s="34"/>
+      <c r="B232" s="37"/>
+      <c r="C232" s="86"/>
+      <c r="D232" s="67"/>
+      <c r="E232" s="30"/>
       <c r="F232" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G232" s="49"/>
-      <c r="H232" s="49"/>
+      <c r="G232" s="34"/>
+      <c r="H232" s="34"/>
     </row>
     <row r="233" spans="1:8" ht="12.75">
-      <c r="A233" s="49"/>
-      <c r="B233" s="59"/>
-      <c r="C233" s="40"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="54"/>
+      <c r="A233" s="34"/>
+      <c r="B233" s="37"/>
+      <c r="C233" s="86"/>
+      <c r="D233" s="67"/>
+      <c r="E233" s="30"/>
       <c r="F233" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G233" s="49"/>
-      <c r="H233" s="49"/>
+      <c r="G233" s="34"/>
+      <c r="H233" s="34"/>
     </row>
     <row r="234" spans="1:8" ht="12.75">
-      <c r="A234" s="49"/>
-      <c r="B234" s="59"/>
-      <c r="C234" s="40"/>
-      <c r="D234" s="32"/>
-      <c r="E234" s="54"/>
+      <c r="A234" s="34"/>
+      <c r="B234" s="37"/>
+      <c r="C234" s="86"/>
+      <c r="D234" s="67"/>
+      <c r="E234" s="30"/>
       <c r="F234" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G234" s="49"/>
-      <c r="H234" s="49"/>
+      <c r="G234" s="34"/>
+      <c r="H234" s="34"/>
     </row>
     <row r="235" spans="1:8" ht="12.75">
-      <c r="A235" s="49"/>
-      <c r="B235" s="59"/>
-      <c r="C235" s="41"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="55"/>
+      <c r="A235" s="34"/>
+      <c r="B235" s="37"/>
+      <c r="C235" s="71"/>
+      <c r="D235" s="68"/>
+      <c r="E235" s="31"/>
       <c r="F235" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G235" s="50"/>
-      <c r="H235" s="50"/>
+      <c r="G235" s="35"/>
+      <c r="H235" s="35"/>
     </row>
     <row r="236" spans="1:8" ht="12.75">
-      <c r="A236" s="49"/>
-      <c r="B236" s="59"/>
-      <c r="C236" s="39">
+      <c r="A236" s="34"/>
+      <c r="B236" s="37"/>
+      <c r="C236" s="70">
         <v>51</v>
       </c>
-      <c r="D236" s="31" t="s">
+      <c r="D236" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E236" s="53" t="s">
+      <c r="E236" s="29" t="s">
         <v>216</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G236" s="48" t="str">
+      <c r="G236" s="33" t="str">
         <f>G229</f>
         <v>На экране отобразилось оповещение "Fill empty fields"</v>
       </c>
-      <c r="H236" s="48" t="s">
+      <c r="H236" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="12.75">
-      <c r="A237" s="49"/>
-      <c r="B237" s="59"/>
-      <c r="C237" s="40"/>
-      <c r="D237" s="32"/>
-      <c r="E237" s="54"/>
+      <c r="A237" s="34"/>
+      <c r="B237" s="37"/>
+      <c r="C237" s="86"/>
+      <c r="D237" s="67"/>
+      <c r="E237" s="30"/>
       <c r="F237" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G237" s="49"/>
-      <c r="H237" s="49"/>
+      <c r="G237" s="34"/>
+      <c r="H237" s="34"/>
     </row>
     <row r="238" spans="1:8" ht="12.75">
-      <c r="A238" s="49"/>
-      <c r="B238" s="59"/>
-      <c r="C238" s="40"/>
-      <c r="D238" s="32"/>
-      <c r="E238" s="54"/>
+      <c r="A238" s="34"/>
+      <c r="B238" s="37"/>
+      <c r="C238" s="86"/>
+      <c r="D238" s="67"/>
+      <c r="E238" s="30"/>
       <c r="F238" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G238" s="49"/>
-      <c r="H238" s="49"/>
+      <c r="G238" s="34"/>
+      <c r="H238" s="34"/>
     </row>
     <row r="239" spans="1:8" ht="12.75">
-      <c r="A239" s="49"/>
-      <c r="B239" s="59"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="32"/>
-      <c r="E239" s="54"/>
+      <c r="A239" s="34"/>
+      <c r="B239" s="37"/>
+      <c r="C239" s="86"/>
+      <c r="D239" s="67"/>
+      <c r="E239" s="30"/>
       <c r="F239" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G239" s="49"/>
-      <c r="H239" s="49"/>
+      <c r="G239" s="34"/>
+      <c r="H239" s="34"/>
     </row>
     <row r="240" spans="1:8" ht="12.75">
-      <c r="A240" s="49"/>
-      <c r="B240" s="59"/>
-      <c r="C240" s="40"/>
-      <c r="D240" s="32"/>
-      <c r="E240" s="54"/>
+      <c r="A240" s="34"/>
+      <c r="B240" s="37"/>
+      <c r="C240" s="86"/>
+      <c r="D240" s="67"/>
+      <c r="E240" s="30"/>
       <c r="F240" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G240" s="49"/>
-      <c r="H240" s="49"/>
+      <c r="G240" s="34"/>
+      <c r="H240" s="34"/>
     </row>
     <row r="241" spans="1:8" ht="12.75">
-      <c r="A241" s="49"/>
-      <c r="B241" s="59"/>
-      <c r="C241" s="40"/>
-      <c r="D241" s="32"/>
-      <c r="E241" s="54"/>
+      <c r="A241" s="34"/>
+      <c r="B241" s="37"/>
+      <c r="C241" s="86"/>
+      <c r="D241" s="67"/>
+      <c r="E241" s="30"/>
       <c r="F241" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G241" s="49"/>
-      <c r="H241" s="49"/>
+      <c r="G241" s="34"/>
+      <c r="H241" s="34"/>
     </row>
     <row r="242" spans="1:8" ht="12.75">
-      <c r="A242" s="49"/>
-      <c r="B242" s="59"/>
-      <c r="C242" s="40"/>
-      <c r="D242" s="32"/>
-      <c r="E242" s="54"/>
+      <c r="A242" s="34"/>
+      <c r="B242" s="37"/>
+      <c r="C242" s="86"/>
+      <c r="D242" s="67"/>
+      <c r="E242" s="30"/>
       <c r="F242" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G242" s="49"/>
-      <c r="H242" s="49"/>
+      <c r="G242" s="34"/>
+      <c r="H242" s="34"/>
     </row>
     <row r="243" spans="1:8" ht="25.5">
-      <c r="A243" s="49"/>
-      <c r="B243" s="59"/>
-      <c r="C243" s="40"/>
-      <c r="D243" s="32"/>
-      <c r="E243" s="54"/>
+      <c r="A243" s="34"/>
+      <c r="B243" s="37"/>
+      <c r="C243" s="86"/>
+      <c r="D243" s="67"/>
+      <c r="E243" s="30"/>
       <c r="F243" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G243" s="49"/>
-      <c r="H243" s="49"/>
+      <c r="G243" s="34"/>
+      <c r="H243" s="34"/>
     </row>
     <row r="244" spans="1:8" ht="25.5">
-      <c r="A244" s="49"/>
-      <c r="B244" s="59"/>
-      <c r="C244" s="40"/>
-      <c r="D244" s="32"/>
-      <c r="E244" s="54"/>
+      <c r="A244" s="34"/>
+      <c r="B244" s="37"/>
+      <c r="C244" s="86"/>
+      <c r="D244" s="67"/>
+      <c r="E244" s="30"/>
       <c r="F244" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G244" s="49"/>
-      <c r="H244" s="49"/>
+      <c r="G244" s="34"/>
+      <c r="H244" s="34"/>
     </row>
     <row r="245" spans="1:8" ht="12.75">
-      <c r="A245" s="49"/>
-      <c r="B245" s="59"/>
-      <c r="C245" s="40"/>
-      <c r="D245" s="32"/>
-      <c r="E245" s="54"/>
+      <c r="A245" s="34"/>
+      <c r="B245" s="37"/>
+      <c r="C245" s="86"/>
+      <c r="D245" s="67"/>
+      <c r="E245" s="30"/>
       <c r="F245" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G245" s="49"/>
-      <c r="H245" s="49"/>
+      <c r="G245" s="34"/>
+      <c r="H245" s="34"/>
     </row>
     <row r="246" spans="1:8" ht="12.75">
-      <c r="A246" s="49"/>
-      <c r="B246" s="59"/>
-      <c r="C246" s="41"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="55"/>
+      <c r="A246" s="34"/>
+      <c r="B246" s="37"/>
+      <c r="C246" s="71"/>
+      <c r="D246" s="68"/>
+      <c r="E246" s="31"/>
       <c r="F246" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G246" s="50"/>
-      <c r="H246" s="50"/>
+      <c r="G246" s="35"/>
+      <c r="H246" s="35"/>
     </row>
     <row r="247" spans="1:8" ht="12.75">
-      <c r="A247" s="49"/>
-      <c r="B247" s="59"/>
-      <c r="C247" s="39">
+      <c r="A247" s="34"/>
+      <c r="B247" s="37"/>
+      <c r="C247" s="70">
         <v>52</v>
       </c>
-      <c r="D247" s="31" t="s">
+      <c r="D247" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E247" s="53" t="s">
+      <c r="E247" s="29" t="s">
         <v>216</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G247" s="48" t="str">
+      <c r="G247" s="33" t="str">
         <f>G236</f>
         <v>На экране отобразилось оповещение "Fill empty fields"</v>
       </c>
-      <c r="H247" s="48" t="s">
+      <c r="H247" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="12.75">
-      <c r="A248" s="49"/>
-      <c r="B248" s="59"/>
-      <c r="C248" s="40"/>
-      <c r="D248" s="32"/>
-      <c r="E248" s="54"/>
+      <c r="A248" s="34"/>
+      <c r="B248" s="37"/>
+      <c r="C248" s="86"/>
+      <c r="D248" s="67"/>
+      <c r="E248" s="30"/>
       <c r="F248" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G248" s="49"/>
-      <c r="H248" s="49"/>
+      <c r="G248" s="34"/>
+      <c r="H248" s="34"/>
     </row>
     <row r="249" spans="1:8" ht="12.75">
-      <c r="A249" s="49"/>
-      <c r="B249" s="59"/>
-      <c r="C249" s="40"/>
-      <c r="D249" s="32"/>
-      <c r="E249" s="54"/>
+      <c r="A249" s="34"/>
+      <c r="B249" s="37"/>
+      <c r="C249" s="86"/>
+      <c r="D249" s="67"/>
+      <c r="E249" s="30"/>
       <c r="F249" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G249" s="49"/>
-      <c r="H249" s="49"/>
+      <c r="G249" s="34"/>
+      <c r="H249" s="34"/>
     </row>
     <row r="250" spans="1:8" ht="12.75">
-      <c r="A250" s="49"/>
-      <c r="B250" s="59"/>
-      <c r="C250" s="40"/>
-      <c r="D250" s="32"/>
-      <c r="E250" s="54"/>
+      <c r="A250" s="34"/>
+      <c r="B250" s="37"/>
+      <c r="C250" s="86"/>
+      <c r="D250" s="67"/>
+      <c r="E250" s="30"/>
       <c r="F250" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G250" s="49"/>
-      <c r="H250" s="49"/>
+      <c r="G250" s="34"/>
+      <c r="H250" s="34"/>
     </row>
     <row r="251" spans="1:8" ht="12.75">
-      <c r="A251" s="49"/>
-      <c r="B251" s="59"/>
-      <c r="C251" s="40"/>
-      <c r="D251" s="32"/>
-      <c r="E251" s="54"/>
+      <c r="A251" s="34"/>
+      <c r="B251" s="37"/>
+      <c r="C251" s="86"/>
+      <c r="D251" s="67"/>
+      <c r="E251" s="30"/>
       <c r="F251" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G251" s="49"/>
-      <c r="H251" s="49"/>
+      <c r="G251" s="34"/>
+      <c r="H251" s="34"/>
     </row>
     <row r="252" spans="1:8" ht="12.75">
-      <c r="A252" s="49"/>
-      <c r="B252" s="59"/>
-      <c r="C252" s="40"/>
-      <c r="D252" s="32"/>
-      <c r="E252" s="54"/>
+      <c r="A252" s="34"/>
+      <c r="B252" s="37"/>
+      <c r="C252" s="86"/>
+      <c r="D252" s="67"/>
+      <c r="E252" s="30"/>
       <c r="F252" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G252" s="49"/>
-      <c r="H252" s="49"/>
+      <c r="G252" s="34"/>
+      <c r="H252" s="34"/>
     </row>
     <row r="253" spans="1:8" ht="12.75">
-      <c r="A253" s="49"/>
-      <c r="B253" s="59"/>
-      <c r="C253" s="40"/>
-      <c r="D253" s="32"/>
-      <c r="E253" s="54"/>
+      <c r="A253" s="34"/>
+      <c r="B253" s="37"/>
+      <c r="C253" s="86"/>
+      <c r="D253" s="67"/>
+      <c r="E253" s="30"/>
       <c r="F253" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G253" s="49"/>
-      <c r="H253" s="49"/>
+      <c r="G253" s="34"/>
+      <c r="H253" s="34"/>
     </row>
     <row r="254" spans="1:8" ht="12.75">
-      <c r="A254" s="49"/>
-      <c r="B254" s="59"/>
-      <c r="C254" s="40"/>
-      <c r="D254" s="32"/>
-      <c r="E254" s="54"/>
+      <c r="A254" s="34"/>
+      <c r="B254" s="37"/>
+      <c r="C254" s="86"/>
+      <c r="D254" s="67"/>
+      <c r="E254" s="30"/>
       <c r="F254" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G254" s="49"/>
-      <c r="H254" s="49"/>
+      <c r="G254" s="34"/>
+      <c r="H254" s="34"/>
     </row>
     <row r="255" spans="1:8" ht="25.5">
-      <c r="A255" s="49"/>
-      <c r="B255" s="59"/>
-      <c r="C255" s="40"/>
-      <c r="D255" s="32"/>
-      <c r="E255" s="54"/>
+      <c r="A255" s="34"/>
+      <c r="B255" s="37"/>
+      <c r="C255" s="86"/>
+      <c r="D255" s="67"/>
+      <c r="E255" s="30"/>
       <c r="F255" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G255" s="49"/>
-      <c r="H255" s="49"/>
+      <c r="G255" s="34"/>
+      <c r="H255" s="34"/>
     </row>
     <row r="256" spans="1:8" ht="25.5">
-      <c r="A256" s="49"/>
-      <c r="B256" s="59"/>
-      <c r="C256" s="40"/>
-      <c r="D256" s="32"/>
-      <c r="E256" s="54"/>
+      <c r="A256" s="34"/>
+      <c r="B256" s="37"/>
+      <c r="C256" s="86"/>
+      <c r="D256" s="67"/>
+      <c r="E256" s="30"/>
       <c r="F256" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G256" s="49"/>
-      <c r="H256" s="49"/>
+      <c r="G256" s="34"/>
+      <c r="H256" s="34"/>
     </row>
     <row r="257" spans="1:8" ht="12.75">
-      <c r="A257" s="49"/>
-      <c r="B257" s="59"/>
-      <c r="C257" s="40"/>
-      <c r="D257" s="32"/>
-      <c r="E257" s="54"/>
+      <c r="A257" s="34"/>
+      <c r="B257" s="37"/>
+      <c r="C257" s="86"/>
+      <c r="D257" s="67"/>
+      <c r="E257" s="30"/>
       <c r="F257" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G257" s="49"/>
-      <c r="H257" s="49"/>
+      <c r="G257" s="34"/>
+      <c r="H257" s="34"/>
     </row>
     <row r="258" spans="1:8" ht="12.75">
-      <c r="A258" s="49"/>
-      <c r="B258" s="59"/>
-      <c r="C258" s="40"/>
-      <c r="D258" s="32"/>
-      <c r="E258" s="54"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="37"/>
+      <c r="C258" s="86"/>
+      <c r="D258" s="67"/>
+      <c r="E258" s="30"/>
       <c r="F258" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G258" s="49"/>
-      <c r="H258" s="49"/>
+      <c r="G258" s="34"/>
+      <c r="H258" s="34"/>
     </row>
     <row r="259" spans="1:8" ht="12.75">
-      <c r="A259" s="49"/>
-      <c r="B259" s="59"/>
-      <c r="C259" s="41"/>
-      <c r="D259" s="33"/>
-      <c r="E259" s="55"/>
+      <c r="A259" s="34"/>
+      <c r="B259" s="37"/>
+      <c r="C259" s="71"/>
+      <c r="D259" s="68"/>
+      <c r="E259" s="31"/>
       <c r="F259" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G259" s="50"/>
-      <c r="H259" s="50"/>
+      <c r="G259" s="35"/>
+      <c r="H259" s="35"/>
     </row>
     <row r="260" spans="1:8" ht="12.75">
-      <c r="A260" s="49"/>
-      <c r="B260" s="59"/>
-      <c r="C260" s="39">
+      <c r="A260" s="34"/>
+      <c r="B260" s="37"/>
+      <c r="C260" s="70">
         <v>53</v>
       </c>
-      <c r="D260" s="31" t="s">
+      <c r="D260" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E260" s="53" t="s">
+      <c r="E260" s="29" t="s">
         <v>228</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G260" s="48" t="s">
+      <c r="G260" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="H260" s="48" t="s">
+      <c r="H260" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="12.75">
-      <c r="A261" s="49"/>
-      <c r="B261" s="59"/>
-      <c r="C261" s="40"/>
-      <c r="D261" s="32"/>
-      <c r="E261" s="54"/>
+      <c r="A261" s="34"/>
+      <c r="B261" s="37"/>
+      <c r="C261" s="86"/>
+      <c r="D261" s="67"/>
+      <c r="E261" s="30"/>
       <c r="F261" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G261" s="49"/>
-      <c r="H261" s="49"/>
+      <c r="G261" s="34"/>
+      <c r="H261" s="34"/>
     </row>
     <row r="262" spans="1:8" ht="12.75">
-      <c r="A262" s="49"/>
-      <c r="B262" s="59"/>
-      <c r="C262" s="40"/>
-      <c r="D262" s="32"/>
-      <c r="E262" s="54"/>
+      <c r="A262" s="34"/>
+      <c r="B262" s="37"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="67"/>
+      <c r="E262" s="30"/>
       <c r="F262" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G262" s="49"/>
-      <c r="H262" s="49"/>
+      <c r="G262" s="34"/>
+      <c r="H262" s="34"/>
     </row>
     <row r="263" spans="1:8" ht="12.75">
-      <c r="A263" s="49"/>
-      <c r="B263" s="59"/>
-      <c r="C263" s="40"/>
-      <c r="D263" s="32"/>
-      <c r="E263" s="54"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="37"/>
+      <c r="C263" s="86"/>
+      <c r="D263" s="67"/>
+      <c r="E263" s="30"/>
       <c r="F263" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G263" s="49"/>
-      <c r="H263" s="49"/>
+      <c r="G263" s="34"/>
+      <c r="H263" s="34"/>
     </row>
     <row r="264" spans="1:8" ht="12.75">
-      <c r="A264" s="49"/>
-      <c r="B264" s="59"/>
-      <c r="C264" s="40"/>
-      <c r="D264" s="32"/>
-      <c r="E264" s="54"/>
+      <c r="A264" s="34"/>
+      <c r="B264" s="37"/>
+      <c r="C264" s="86"/>
+      <c r="D264" s="67"/>
+      <c r="E264" s="30"/>
       <c r="F264" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G264" s="49"/>
-      <c r="H264" s="49"/>
+      <c r="G264" s="34"/>
+      <c r="H264" s="34"/>
     </row>
     <row r="265" spans="1:8" ht="12.75">
-      <c r="A265" s="49"/>
-      <c r="B265" s="59"/>
-      <c r="C265" s="40"/>
-      <c r="D265" s="32"/>
-      <c r="E265" s="54"/>
+      <c r="A265" s="34"/>
+      <c r="B265" s="37"/>
+      <c r="C265" s="86"/>
+      <c r="D265" s="67"/>
+      <c r="E265" s="30"/>
       <c r="F265" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G265" s="49"/>
-      <c r="H265" s="49"/>
+      <c r="G265" s="34"/>
+      <c r="H265" s="34"/>
     </row>
     <row r="266" spans="1:8" ht="12.75">
-      <c r="A266" s="49"/>
-      <c r="B266" s="59"/>
-      <c r="C266" s="40"/>
-      <c r="D266" s="32"/>
-      <c r="E266" s="54"/>
+      <c r="A266" s="34"/>
+      <c r="B266" s="37"/>
+      <c r="C266" s="86"/>
+      <c r="D266" s="67"/>
+      <c r="E266" s="30"/>
       <c r="F266" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G266" s="49"/>
-      <c r="H266" s="49"/>
+      <c r="G266" s="34"/>
+      <c r="H266" s="34"/>
     </row>
     <row r="267" spans="1:8" ht="25.5">
-      <c r="A267" s="49"/>
-      <c r="B267" s="59"/>
-      <c r="C267" s="40"/>
-      <c r="D267" s="32"/>
-      <c r="E267" s="54"/>
+      <c r="A267" s="34"/>
+      <c r="B267" s="37"/>
+      <c r="C267" s="86"/>
+      <c r="D267" s="67"/>
+      <c r="E267" s="30"/>
       <c r="F267" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G267" s="49"/>
-      <c r="H267" s="49"/>
+      <c r="G267" s="34"/>
+      <c r="H267" s="34"/>
     </row>
     <row r="268" spans="1:8" ht="25.5">
-      <c r="A268" s="49"/>
-      <c r="B268" s="59"/>
-      <c r="C268" s="40"/>
-      <c r="D268" s="32"/>
-      <c r="E268" s="54"/>
+      <c r="A268" s="34"/>
+      <c r="B268" s="37"/>
+      <c r="C268" s="86"/>
+      <c r="D268" s="67"/>
+      <c r="E268" s="30"/>
       <c r="F268" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G268" s="49"/>
-      <c r="H268" s="49"/>
+      <c r="G268" s="34"/>
+      <c r="H268" s="34"/>
     </row>
     <row r="269" spans="1:8" ht="12.75">
-      <c r="A269" s="49"/>
-      <c r="B269" s="59"/>
-      <c r="C269" s="40"/>
-      <c r="D269" s="32"/>
-      <c r="E269" s="54"/>
+      <c r="A269" s="34"/>
+      <c r="B269" s="37"/>
+      <c r="C269" s="86"/>
+      <c r="D269" s="67"/>
+      <c r="E269" s="30"/>
       <c r="F269" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G269" s="49"/>
-      <c r="H269" s="49"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="34"/>
     </row>
     <row r="270" spans="1:8" ht="12.75">
-      <c r="A270" s="49"/>
-      <c r="B270" s="59"/>
-      <c r="C270" s="40"/>
-      <c r="D270" s="32"/>
-      <c r="E270" s="54"/>
+      <c r="A270" s="34"/>
+      <c r="B270" s="37"/>
+      <c r="C270" s="86"/>
+      <c r="D270" s="67"/>
+      <c r="E270" s="30"/>
       <c r="F270" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G270" s="49"/>
-      <c r="H270" s="49"/>
+      <c r="G270" s="34"/>
+      <c r="H270" s="34"/>
     </row>
     <row r="271" spans="1:8" ht="12.75">
-      <c r="A271" s="49"/>
-      <c r="B271" s="59"/>
-      <c r="C271" s="40"/>
-      <c r="D271" s="32"/>
-      <c r="E271" s="54"/>
+      <c r="A271" s="34"/>
+      <c r="B271" s="37"/>
+      <c r="C271" s="86"/>
+      <c r="D271" s="67"/>
+      <c r="E271" s="30"/>
       <c r="F271" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G271" s="49"/>
-      <c r="H271" s="49"/>
+      <c r="G271" s="34"/>
+      <c r="H271" s="34"/>
     </row>
     <row r="272" spans="1:8" ht="12.75">
-      <c r="A272" s="49"/>
-      <c r="B272" s="59"/>
-      <c r="C272" s="41"/>
-      <c r="D272" s="33"/>
-      <c r="E272" s="55"/>
+      <c r="A272" s="34"/>
+      <c r="B272" s="37"/>
+      <c r="C272" s="71"/>
+      <c r="D272" s="68"/>
+      <c r="E272" s="31"/>
       <c r="F272" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G272" s="50"/>
-      <c r="H272" s="50"/>
+      <c r="G272" s="35"/>
+      <c r="H272" s="35"/>
     </row>
     <row r="273" spans="1:8" ht="25.5">
-      <c r="A273" s="49"/>
-      <c r="B273" s="59"/>
-      <c r="C273" s="39">
+      <c r="A273" s="34"/>
+      <c r="B273" s="37"/>
+      <c r="C273" s="70">
         <v>54</v>
       </c>
-      <c r="D273" s="31" t="s">
+      <c r="D273" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E273" s="53" t="s">
+      <c r="E273" s="29" t="s">
         <v>232</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G273" s="48" t="s">
+      <c r="G273" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="H273" s="48" t="s">
+      <c r="H273" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="12.75">
-      <c r="A274" s="49"/>
-      <c r="B274" s="59"/>
-      <c r="C274" s="40"/>
-      <c r="D274" s="32"/>
-      <c r="E274" s="54"/>
+      <c r="A274" s="34"/>
+      <c r="B274" s="37"/>
+      <c r="C274" s="86"/>
+      <c r="D274" s="67"/>
+      <c r="E274" s="30"/>
       <c r="F274" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G274" s="49"/>
-      <c r="H274" s="49"/>
+      <c r="G274" s="34"/>
+      <c r="H274" s="34"/>
     </row>
     <row r="275" spans="1:8" ht="25.5">
-      <c r="A275" s="49"/>
-      <c r="B275" s="59"/>
-      <c r="C275" s="40"/>
-      <c r="D275" s="32"/>
-      <c r="E275" s="54"/>
+      <c r="A275" s="34"/>
+      <c r="B275" s="37"/>
+      <c r="C275" s="86"/>
+      <c r="D275" s="67"/>
+      <c r="E275" s="30"/>
       <c r="F275" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G275" s="49"/>
-      <c r="H275" s="49"/>
+      <c r="G275" s="34"/>
+      <c r="H275" s="34"/>
     </row>
     <row r="276" spans="1:8" ht="12.75">
-      <c r="A276" s="49"/>
-      <c r="B276" s="59"/>
-      <c r="C276" s="41"/>
-      <c r="D276" s="33"/>
-      <c r="E276" s="55"/>
+      <c r="A276" s="34"/>
+      <c r="B276" s="37"/>
+      <c r="C276" s="71"/>
+      <c r="D276" s="68"/>
+      <c r="E276" s="31"/>
       <c r="F276" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G276" s="50"/>
-      <c r="H276" s="50"/>
+      <c r="G276" s="35"/>
+      <c r="H276" s="35"/>
     </row>
     <row r="277" spans="1:8" ht="25.5">
-      <c r="A277" s="49"/>
-      <c r="B277" s="59"/>
-      <c r="C277" s="39">
+      <c r="A277" s="34"/>
+      <c r="B277" s="37"/>
+      <c r="C277" s="70">
         <v>55</v>
       </c>
-      <c r="D277" s="31" t="s">
+      <c r="D277" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E277" s="53" t="s">
+      <c r="E277" s="29" t="s">
         <v>235</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G277" s="48" t="s">
+      <c r="G277" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="H277" s="48" t="s">
+      <c r="H277" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="12.75">
-      <c r="A278" s="49"/>
-      <c r="B278" s="59"/>
-      <c r="C278" s="40"/>
-      <c r="D278" s="32"/>
-      <c r="E278" s="54"/>
+      <c r="A278" s="34"/>
+      <c r="B278" s="37"/>
+      <c r="C278" s="86"/>
+      <c r="D278" s="67"/>
+      <c r="E278" s="30"/>
       <c r="F278" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G278" s="49"/>
-      <c r="H278" s="49"/>
+      <c r="G278" s="34"/>
+      <c r="H278" s="34"/>
     </row>
     <row r="279" spans="1:8" ht="12.75">
-      <c r="A279" s="49"/>
-      <c r="B279" s="59"/>
-      <c r="C279" s="40"/>
-      <c r="D279" s="32"/>
-      <c r="E279" s="54"/>
+      <c r="A279" s="34"/>
+      <c r="B279" s="37"/>
+      <c r="C279" s="86"/>
+      <c r="D279" s="67"/>
+      <c r="E279" s="30"/>
       <c r="F279" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G279" s="49"/>
-      <c r="H279" s="49"/>
+      <c r="G279" s="34"/>
+      <c r="H279" s="34"/>
     </row>
     <row r="280" spans="1:8" ht="25.5">
-      <c r="A280" s="49"/>
-      <c r="B280" s="59"/>
-      <c r="C280" s="40"/>
-      <c r="D280" s="32"/>
-      <c r="E280" s="54"/>
+      <c r="A280" s="34"/>
+      <c r="B280" s="37"/>
+      <c r="C280" s="86"/>
+      <c r="D280" s="67"/>
+      <c r="E280" s="30"/>
       <c r="F280" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G280" s="49"/>
-      <c r="H280" s="49"/>
+      <c r="G280" s="34"/>
+      <c r="H280" s="34"/>
     </row>
     <row r="281" spans="1:8" ht="12.75">
-      <c r="A281" s="49"/>
-      <c r="B281" s="59"/>
-      <c r="C281" s="41"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="55"/>
+      <c r="A281" s="34"/>
+      <c r="B281" s="37"/>
+      <c r="C281" s="71"/>
+      <c r="D281" s="68"/>
+      <c r="E281" s="31"/>
       <c r="F281" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G281" s="50"/>
-      <c r="H281" s="50"/>
+      <c r="G281" s="35"/>
+      <c r="H281" s="35"/>
     </row>
     <row r="282" spans="1:8" ht="25.5">
-      <c r="A282" s="49"/>
-      <c r="B282" s="59"/>
-      <c r="C282" s="39">
+      <c r="A282" s="34"/>
+      <c r="B282" s="37"/>
+      <c r="C282" s="70">
         <v>56</v>
       </c>
-      <c r="D282" s="31" t="s">
+      <c r="D282" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E282" s="53" t="s">
+      <c r="E282" s="29" t="s">
         <v>237</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G282" s="48" t="s">
+      <c r="G282" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="H282" s="48" t="s">
+      <c r="H282" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="12.75">
-      <c r="A283" s="49"/>
-      <c r="B283" s="59"/>
-      <c r="C283" s="40"/>
-      <c r="D283" s="32"/>
-      <c r="E283" s="54"/>
+      <c r="A283" s="34"/>
+      <c r="B283" s="37"/>
+      <c r="C283" s="86"/>
+      <c r="D283" s="67"/>
+      <c r="E283" s="30"/>
       <c r="F283" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G283" s="49"/>
-      <c r="H283" s="49"/>
+      <c r="G283" s="34"/>
+      <c r="H283" s="34"/>
     </row>
     <row r="284" spans="1:8" ht="12.75">
-      <c r="A284" s="49"/>
-      <c r="B284" s="59"/>
-      <c r="C284" s="40"/>
-      <c r="D284" s="32"/>
-      <c r="E284" s="54"/>
+      <c r="A284" s="34"/>
+      <c r="B284" s="37"/>
+      <c r="C284" s="86"/>
+      <c r="D284" s="67"/>
+      <c r="E284" s="30"/>
       <c r="F284" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G284" s="49"/>
-      <c r="H284" s="49"/>
+      <c r="G284" s="34"/>
+      <c r="H284" s="34"/>
     </row>
     <row r="285" spans="1:8" ht="12.75">
-      <c r="A285" s="49"/>
-      <c r="B285" s="59"/>
-      <c r="C285" s="40"/>
-      <c r="D285" s="32"/>
-      <c r="E285" s="54"/>
+      <c r="A285" s="34"/>
+      <c r="B285" s="37"/>
+      <c r="C285" s="86"/>
+      <c r="D285" s="67"/>
+      <c r="E285" s="30"/>
       <c r="F285" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G285" s="49"/>
-      <c r="H285" s="49"/>
+      <c r="G285" s="34"/>
+      <c r="H285" s="34"/>
     </row>
     <row r="286" spans="1:8" ht="12.75">
-      <c r="A286" s="49"/>
-      <c r="B286" s="59"/>
-      <c r="C286" s="41"/>
-      <c r="D286" s="33"/>
-      <c r="E286" s="55"/>
+      <c r="A286" s="34"/>
+      <c r="B286" s="37"/>
+      <c r="C286" s="71"/>
+      <c r="D286" s="68"/>
+      <c r="E286" s="31"/>
       <c r="F286" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G286" s="50"/>
-      <c r="H286" s="50"/>
+      <c r="G286" s="35"/>
+      <c r="H286" s="35"/>
     </row>
     <row r="287" spans="1:8" ht="25.5">
-      <c r="A287" s="49"/>
-      <c r="B287" s="59"/>
-      <c r="C287" s="39">
+      <c r="A287" s="34"/>
+      <c r="B287" s="37"/>
+      <c r="C287" s="70">
         <v>57</v>
       </c>
-      <c r="D287" s="31" t="s">
+      <c r="D287" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E287" s="53" t="s">
+      <c r="E287" s="29" t="s">
         <v>239</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G287" s="48" t="s">
+      <c r="G287" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="H287" s="48" t="s">
+      <c r="H287" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="12.75">
-      <c r="A288" s="49"/>
-      <c r="B288" s="59"/>
-      <c r="C288" s="40"/>
-      <c r="D288" s="32"/>
-      <c r="E288" s="54"/>
+      <c r="A288" s="34"/>
+      <c r="B288" s="37"/>
+      <c r="C288" s="86"/>
+      <c r="D288" s="67"/>
+      <c r="E288" s="30"/>
       <c r="F288" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G288" s="49"/>
-      <c r="H288" s="49"/>
+      <c r="G288" s="34"/>
+      <c r="H288" s="34"/>
     </row>
     <row r="289" spans="1:8" ht="12.75">
-      <c r="A289" s="49"/>
-      <c r="B289" s="59"/>
-      <c r="C289" s="40"/>
-      <c r="D289" s="32"/>
-      <c r="E289" s="54"/>
+      <c r="A289" s="34"/>
+      <c r="B289" s="37"/>
+      <c r="C289" s="86"/>
+      <c r="D289" s="67"/>
+      <c r="E289" s="30"/>
       <c r="F289" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G289" s="49"/>
-      <c r="H289" s="49"/>
+      <c r="G289" s="34"/>
+      <c r="H289" s="34"/>
     </row>
     <row r="290" spans="1:8" ht="12.75">
-      <c r="A290" s="49"/>
-      <c r="B290" s="59"/>
-      <c r="C290" s="40"/>
-      <c r="D290" s="32"/>
-      <c r="E290" s="54"/>
+      <c r="A290" s="34"/>
+      <c r="B290" s="37"/>
+      <c r="C290" s="86"/>
+      <c r="D290" s="67"/>
+      <c r="E290" s="30"/>
       <c r="F290" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G290" s="49"/>
-      <c r="H290" s="49"/>
+      <c r="G290" s="34"/>
+      <c r="H290" s="34"/>
     </row>
     <row r="291" spans="1:8" ht="12.75">
-      <c r="A291" s="49"/>
-      <c r="B291" s="59"/>
-      <c r="C291" s="40"/>
-      <c r="D291" s="32"/>
-      <c r="E291" s="54"/>
+      <c r="A291" s="34"/>
+      <c r="B291" s="37"/>
+      <c r="C291" s="86"/>
+      <c r="D291" s="67"/>
+      <c r="E291" s="30"/>
       <c r="F291" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G291" s="49"/>
-      <c r="H291" s="49"/>
+      <c r="G291" s="34"/>
+      <c r="H291" s="34"/>
     </row>
     <row r="292" spans="1:8" ht="12.75">
-      <c r="A292" s="49"/>
-      <c r="B292" s="59"/>
-      <c r="C292" s="40"/>
-      <c r="D292" s="32"/>
-      <c r="E292" s="54"/>
+      <c r="A292" s="34"/>
+      <c r="B292" s="37"/>
+      <c r="C292" s="86"/>
+      <c r="D292" s="67"/>
+      <c r="E292" s="30"/>
       <c r="F292" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G292" s="49"/>
-      <c r="H292" s="49"/>
+      <c r="G292" s="34"/>
+      <c r="H292" s="34"/>
     </row>
     <row r="293" spans="1:8" ht="25.5">
-      <c r="A293" s="49"/>
-      <c r="B293" s="59"/>
-      <c r="C293" s="41"/>
-      <c r="D293" s="33"/>
-      <c r="E293" s="55"/>
+      <c r="A293" s="34"/>
+      <c r="B293" s="37"/>
+      <c r="C293" s="71"/>
+      <c r="D293" s="68"/>
+      <c r="E293" s="31"/>
       <c r="F293" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G293" s="50"/>
-      <c r="H293" s="50"/>
+      <c r="G293" s="35"/>
+      <c r="H293" s="35"/>
     </row>
     <row r="294" spans="1:8" ht="25.5">
-      <c r="A294" s="49"/>
-      <c r="B294" s="59"/>
-      <c r="C294" s="39">
+      <c r="A294" s="34"/>
+      <c r="B294" s="37"/>
+      <c r="C294" s="70">
         <v>58</v>
       </c>
-      <c r="D294" s="31" t="s">
+      <c r="D294" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="E294" s="53" t="s">
+      <c r="E294" s="29" t="s">
         <v>242</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G294" s="48" t="str">
+      <c r="G294" s="33" t="str">
         <f>G287</f>
         <v>Вретя в строке Time изменилось</v>
       </c>
-      <c r="H294" s="48" t="s">
+      <c r="H294" s="33" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="12.75">
-      <c r="A295" s="49"/>
-      <c r="B295" s="59"/>
-      <c r="C295" s="40"/>
-      <c r="D295" s="32"/>
-      <c r="E295" s="54"/>
+      <c r="A295" s="34"/>
+      <c r="B295" s="37"/>
+      <c r="C295" s="86"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="30"/>
       <c r="F295" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G295" s="49"/>
-      <c r="H295" s="49"/>
+      <c r="G295" s="34"/>
+      <c r="H295" s="34"/>
     </row>
     <row r="296" spans="1:8" ht="12.75">
-      <c r="A296" s="49"/>
-      <c r="B296" s="59"/>
-      <c r="C296" s="40"/>
-      <c r="D296" s="32"/>
-      <c r="E296" s="54"/>
+      <c r="A296" s="34"/>
+      <c r="B296" s="37"/>
+      <c r="C296" s="86"/>
+      <c r="D296" s="67"/>
+      <c r="E296" s="30"/>
       <c r="F296" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G296" s="49"/>
-      <c r="H296" s="49"/>
+      <c r="G296" s="34"/>
+      <c r="H296" s="34"/>
     </row>
     <row r="297" spans="1:8" ht="12.75">
-      <c r="A297" s="49"/>
-      <c r="B297" s="59"/>
-      <c r="C297" s="40"/>
-      <c r="D297" s="32"/>
-      <c r="E297" s="54"/>
+      <c r="A297" s="34"/>
+      <c r="B297" s="37"/>
+      <c r="C297" s="86"/>
+      <c r="D297" s="67"/>
+      <c r="E297" s="30"/>
       <c r="F297" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G297" s="49"/>
-      <c r="H297" s="49"/>
+      <c r="G297" s="34"/>
+      <c r="H297" s="34"/>
     </row>
     <row r="298" spans="1:8" ht="25.5">
-      <c r="A298" s="49"/>
-      <c r="B298" s="59"/>
-      <c r="C298" s="40"/>
-      <c r="D298" s="32"/>
-      <c r="E298" s="54"/>
+      <c r="A298" s="34"/>
+      <c r="B298" s="37"/>
+      <c r="C298" s="86"/>
+      <c r="D298" s="67"/>
+      <c r="E298" s="30"/>
       <c r="F298" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G298" s="49"/>
-      <c r="H298" s="49"/>
+      <c r="G298" s="34"/>
+      <c r="H298" s="34"/>
     </row>
     <row r="299" spans="1:8" ht="12.75">
-      <c r="A299" s="49"/>
-      <c r="B299" s="59"/>
-      <c r="C299" s="40"/>
-      <c r="D299" s="32"/>
-      <c r="E299" s="54"/>
+      <c r="A299" s="34"/>
+      <c r="B299" s="37"/>
+      <c r="C299" s="86"/>
+      <c r="D299" s="67"/>
+      <c r="E299" s="30"/>
       <c r="F299" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G299" s="49"/>
-      <c r="H299" s="49"/>
+      <c r="G299" s="34"/>
+      <c r="H299" s="34"/>
     </row>
     <row r="300" spans="1:8" ht="12.75">
-      <c r="A300" s="49"/>
-      <c r="B300" s="59"/>
-      <c r="C300" s="40"/>
-      <c r="D300" s="32"/>
-      <c r="E300" s="54"/>
+      <c r="A300" s="34"/>
+      <c r="B300" s="37"/>
+      <c r="C300" s="86"/>
+      <c r="D300" s="67"/>
+      <c r="E300" s="30"/>
       <c r="F300" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G300" s="49"/>
-      <c r="H300" s="49"/>
+      <c r="G300" s="34"/>
+      <c r="H300" s="34"/>
     </row>
     <row r="301" spans="1:8" ht="25.5">
-      <c r="A301" s="50"/>
-      <c r="B301" s="60"/>
-      <c r="C301" s="41"/>
-      <c r="D301" s="33"/>
-      <c r="E301" s="55"/>
+      <c r="A301" s="35"/>
+      <c r="B301" s="38"/>
+      <c r="C301" s="71"/>
+      <c r="D301" s="68"/>
+      <c r="E301" s="31"/>
       <c r="F301" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G301" s="50"/>
-      <c r="H301" s="50"/>
+      <c r="G301" s="35"/>
+      <c r="H301" s="35"/>
     </row>
     <row r="302" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A302" s="76" t="s">
+      <c r="A302" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="B302" s="79" t="s">
+      <c r="B302" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C302" s="42">
+      <c r="C302" s="89">
         <v>59</v>
       </c>
-      <c r="D302" s="28" t="s">
+      <c r="D302" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E302" s="56" t="s">
+      <c r="E302" s="32" t="s">
         <v>245</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G302" s="51" t="s">
+      <c r="G302" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="H302" s="51" t="s">
+      <c r="H302" s="69" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="25.5">
-      <c r="A303" s="77"/>
-      <c r="B303" s="80"/>
-      <c r="C303" s="43"/>
-      <c r="D303" s="29"/>
-      <c r="E303" s="54"/>
+      <c r="A303" s="57"/>
+      <c r="B303" s="54"/>
+      <c r="C303" s="90"/>
+      <c r="D303" s="47"/>
+      <c r="E303" s="30"/>
       <c r="F303" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G303" s="49"/>
-      <c r="H303" s="49"/>
+      <c r="G303" s="34"/>
+      <c r="H303" s="34"/>
     </row>
     <row r="304" spans="1:8" ht="12.75">
-      <c r="A304" s="77"/>
-      <c r="B304" s="80"/>
-      <c r="C304" s="44"/>
-      <c r="D304" s="30"/>
-      <c r="E304" s="55"/>
-      <c r="F304" s="82" t="s">
+      <c r="A304" s="57"/>
+      <c r="B304" s="54"/>
+      <c r="C304" s="91"/>
+      <c r="D304" s="46"/>
+      <c r="E304" s="31"/>
+      <c r="F304" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="G304" s="50"/>
-      <c r="H304" s="50"/>
+      <c r="G304" s="35"/>
+      <c r="H304" s="35"/>
     </row>
     <row r="305" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A305" s="77"/>
-      <c r="B305" s="80"/>
-      <c r="C305" s="45">
+      <c r="A305" s="57"/>
+      <c r="B305" s="54"/>
+      <c r="C305" s="41">
         <v>60</v>
       </c>
-      <c r="D305" s="28" t="s">
+      <c r="D305" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E305" s="56" t="s">
+      <c r="E305" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="F305" s="82" t="s">
+      <c r="F305" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="G305" s="51" t="s">
+      <c r="G305" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="H305" s="51" t="s">
+      <c r="H305" s="69" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A306" s="77"/>
-      <c r="B306" s="80"/>
-      <c r="C306" s="46"/>
-      <c r="D306" s="30"/>
-      <c r="E306" s="55"/>
+      <c r="A306" s="57"/>
+      <c r="B306" s="54"/>
+      <c r="C306" s="42"/>
+      <c r="D306" s="46"/>
+      <c r="E306" s="31"/>
       <c r="F306" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G306" s="50"/>
-      <c r="H306" s="50"/>
+      <c r="G306" s="35"/>
+      <c r="H306" s="35"/>
     </row>
     <row r="307" spans="1:8" ht="18" customHeight="1">
-      <c r="A307" s="77"/>
-      <c r="B307" s="80"/>
-      <c r="C307" s="45">
+      <c r="A307" s="57"/>
+      <c r="B307" s="54"/>
+      <c r="C307" s="41">
         <v>61</v>
       </c>
-      <c r="D307" s="28" t="s">
+      <c r="D307" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E307" s="56" t="s">
+      <c r="E307" s="32" t="s">
         <v>254</v>
       </c>
       <c r="F307" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G307" s="88" t="s">
+      <c r="G307" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="H307" s="51" t="s">
+      <c r="H307" s="69" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="21" customHeight="1">
-      <c r="A308" s="77"/>
-      <c r="B308" s="80"/>
-      <c r="C308" s="46"/>
-      <c r="D308" s="30"/>
-      <c r="E308" s="55"/>
-      <c r="F308" s="82" t="s">
+      <c r="A308" s="57"/>
+      <c r="B308" s="54"/>
+      <c r="C308" s="42"/>
+      <c r="D308" s="46"/>
+      <c r="E308" s="31"/>
+      <c r="F308" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="G308" s="50"/>
-      <c r="H308" s="50"/>
+      <c r="G308" s="35"/>
+      <c r="H308" s="35"/>
     </row>
     <row r="309" spans="1:8" ht="25.5">
-      <c r="A309" s="77"/>
-      <c r="B309" s="80"/>
+      <c r="A309" s="57"/>
+      <c r="B309" s="54"/>
       <c r="C309" s="17">
         <v>62</v>
       </c>
@@ -6220,172 +6220,172 @@
       </c>
     </row>
     <row r="310" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A310" s="77"/>
-      <c r="B310" s="80"/>
-      <c r="C310" s="45">
+      <c r="A310" s="57"/>
+      <c r="B310" s="54"/>
+      <c r="C310" s="41">
         <v>63</v>
       </c>
-      <c r="D310" s="28" t="s">
+      <c r="D310" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E310" s="56" t="s">
+      <c r="E310" s="32" t="s">
         <v>260</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G310" s="51" t="s">
+      <c r="G310" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="H310" s="51" t="s">
+      <c r="H310" s="69" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="18" customHeight="1">
-      <c r="A311" s="77"/>
-      <c r="B311" s="80"/>
-      <c r="C311" s="47"/>
-      <c r="D311" s="29"/>
-      <c r="E311" s="54"/>
+      <c r="A311" s="57"/>
+      <c r="B311" s="54"/>
+      <c r="C311" s="59"/>
+      <c r="D311" s="47"/>
+      <c r="E311" s="30"/>
       <c r="F311" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G311" s="49"/>
-      <c r="H311" s="49"/>
+      <c r="G311" s="34"/>
+      <c r="H311" s="34"/>
     </row>
     <row r="312" spans="1:8" ht="18" customHeight="1">
-      <c r="A312" s="77"/>
-      <c r="B312" s="80"/>
-      <c r="C312" s="46"/>
-      <c r="D312" s="30"/>
-      <c r="E312" s="55"/>
+      <c r="A312" s="57"/>
+      <c r="B312" s="54"/>
+      <c r="C312" s="42"/>
+      <c r="D312" s="46"/>
+      <c r="E312" s="31"/>
       <c r="F312" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G312" s="50"/>
-      <c r="H312" s="50"/>
+      <c r="G312" s="35"/>
+      <c r="H312" s="35"/>
     </row>
     <row r="313" spans="1:8" ht="25.5">
-      <c r="A313" s="77"/>
-      <c r="B313" s="80"/>
-      <c r="C313" s="45">
+      <c r="A313" s="57"/>
+      <c r="B313" s="54"/>
+      <c r="C313" s="41">
         <v>64</v>
       </c>
-      <c r="D313" s="28" t="s">
+      <c r="D313" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E313" s="66" t="s">
+      <c r="E313" s="40" t="s">
         <v>264</v>
       </c>
       <c r="F313" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G313" s="51" t="s">
+      <c r="G313" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="H313" s="51" t="s">
+      <c r="H313" s="69" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="12.75">
-      <c r="A314" s="77"/>
-      <c r="B314" s="80"/>
-      <c r="C314" s="46"/>
-      <c r="D314" s="30"/>
-      <c r="E314" s="55"/>
+      <c r="A314" s="57"/>
+      <c r="B314" s="54"/>
+      <c r="C314" s="42"/>
+      <c r="D314" s="46"/>
+      <c r="E314" s="31"/>
       <c r="F314" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G314" s="50"/>
-      <c r="H314" s="73"/>
+      <c r="G314" s="35"/>
+      <c r="H314" s="82"/>
     </row>
     <row r="315" spans="1:8" ht="18" customHeight="1">
-      <c r="A315" s="77"/>
-      <c r="B315" s="80"/>
-      <c r="C315" s="45">
+      <c r="A315" s="57"/>
+      <c r="B315" s="54"/>
+      <c r="C315" s="41">
         <v>72</v>
       </c>
-      <c r="D315" s="84" t="s">
+      <c r="D315" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="E315" s="85" t="s">
+      <c r="E315" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="F315" s="75" t="s">
+      <c r="F315" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="G315" s="89" t="s">
+      <c r="G315" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="H315" s="94" t="s">
+      <c r="H315" s="83" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="12.75">
-      <c r="A316" s="77"/>
-      <c r="B316" s="80"/>
-      <c r="C316" s="47"/>
-      <c r="D316" s="29"/>
-      <c r="E316" s="86"/>
-      <c r="F316" s="83" t="s">
+      <c r="A316" s="57"/>
+      <c r="B316" s="54"/>
+      <c r="C316" s="59"/>
+      <c r="D316" s="47"/>
+      <c r="E316" s="62"/>
+      <c r="F316" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="G316" s="90"/>
-      <c r="H316" s="93"/>
+      <c r="G316" s="79"/>
+      <c r="H316" s="84"/>
     </row>
     <row r="317" spans="1:8" ht="12.75">
-      <c r="A317" s="77"/>
-      <c r="B317" s="80"/>
-      <c r="C317" s="47"/>
-      <c r="D317" s="29"/>
-      <c r="E317" s="86"/>
-      <c r="F317" s="83" t="s">
+      <c r="A317" s="57"/>
+      <c r="B317" s="54"/>
+      <c r="C317" s="59"/>
+      <c r="D317" s="47"/>
+      <c r="E317" s="62"/>
+      <c r="F317" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="G317" s="90"/>
-      <c r="H317" s="93"/>
+      <c r="G317" s="79"/>
+      <c r="H317" s="84"/>
     </row>
     <row r="318" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A318" s="77"/>
-      <c r="B318" s="80"/>
-      <c r="C318" s="47"/>
-      <c r="D318" s="29"/>
-      <c r="E318" s="86"/>
-      <c r="F318" s="83" t="s">
+      <c r="A318" s="57"/>
+      <c r="B318" s="54"/>
+      <c r="C318" s="59"/>
+      <c r="D318" s="47"/>
+      <c r="E318" s="62"/>
+      <c r="F318" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="G318" s="90"/>
-      <c r="H318" s="93"/>
+      <c r="G318" s="79"/>
+      <c r="H318" s="84"/>
     </row>
     <row r="319" spans="1:8" ht="12.75">
-      <c r="A319" s="77"/>
-      <c r="B319" s="80"/>
-      <c r="C319" s="47"/>
-      <c r="D319" s="29"/>
-      <c r="E319" s="86"/>
-      <c r="F319" s="83" t="s">
+      <c r="A319" s="57"/>
+      <c r="B319" s="54"/>
+      <c r="C319" s="59"/>
+      <c r="D319" s="47"/>
+      <c r="E319" s="62"/>
+      <c r="F319" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="G319" s="90"/>
-      <c r="H319" s="93"/>
+      <c r="G319" s="79"/>
+      <c r="H319" s="84"/>
     </row>
     <row r="320" spans="1:8" ht="12.75">
-      <c r="A320" s="78"/>
-      <c r="B320" s="81"/>
-      <c r="C320" s="46"/>
-      <c r="D320" s="30"/>
-      <c r="E320" s="87"/>
-      <c r="F320" s="83" t="s">
+      <c r="A320" s="58"/>
+      <c r="B320" s="55"/>
+      <c r="C320" s="42"/>
+      <c r="D320" s="46"/>
+      <c r="E320" s="63"/>
+      <c r="F320" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="G320" s="91"/>
-      <c r="H320" s="92"/>
+      <c r="G320" s="80"/>
+      <c r="H320" s="85"/>
     </row>
     <row r="321" spans="1:8" ht="30" customHeight="1">
-      <c r="A321" s="67" t="s">
+      <c r="A321" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="B321" s="69" t="s">
+      <c r="B321" s="50" t="s">
         <v>269</v>
       </c>
       <c r="C321" s="15">
@@ -6408,8 +6408,8 @@
       </c>
     </row>
     <row r="322" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A322" s="68"/>
-      <c r="B322" s="70"/>
+      <c r="A322" s="49"/>
+      <c r="B322" s="51"/>
       <c r="C322" s="16">
         <v>66</v>
       </c>
@@ -6430,8 +6430,8 @@
       </c>
     </row>
     <row r="323" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A323" s="68"/>
-      <c r="B323" s="71"/>
+      <c r="A323" s="49"/>
+      <c r="B323" s="52"/>
       <c r="C323" s="21">
         <v>67</v>
       </c>
@@ -6447,287 +6447,287 @@
       <c r="G323" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="H323" s="74" t="s">
+      <c r="H323" s="25" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A324" s="35" t="s">
+      <c r="A324" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="B324" s="38" t="s">
+      <c r="B324" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C324" s="35">
+      <c r="C324" s="43">
         <v>68</v>
       </c>
-      <c r="D324" s="28" t="s">
+      <c r="D324" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E324" s="56" t="s">
+      <c r="E324" s="32" t="s">
         <v>276</v>
       </c>
       <c r="F324" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="G324" s="51" t="s">
+      <c r="G324" s="69" t="s">
         <v>278</v>
       </c>
-      <c r="H324" s="51" t="s">
+      <c r="H324" s="69" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="12.75">
-      <c r="A325" s="36"/>
-      <c r="B325" s="36"/>
-      <c r="C325" s="36"/>
-      <c r="D325" s="29"/>
-      <c r="E325" s="54"/>
+      <c r="A325" s="44"/>
+      <c r="B325" s="44"/>
+      <c r="C325" s="44"/>
+      <c r="D325" s="47"/>
+      <c r="E325" s="30"/>
       <c r="F325" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G325" s="49"/>
-      <c r="H325" s="49"/>
+      <c r="G325" s="34"/>
+      <c r="H325" s="34"/>
     </row>
     <row r="326" spans="1:8" ht="12.75">
-      <c r="A326" s="36"/>
-      <c r="B326" s="36"/>
-      <c r="C326" s="36"/>
-      <c r="D326" s="29"/>
-      <c r="E326" s="54"/>
+      <c r="A326" s="44"/>
+      <c r="B326" s="44"/>
+      <c r="C326" s="44"/>
+      <c r="D326" s="47"/>
+      <c r="E326" s="30"/>
       <c r="F326" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G326" s="49"/>
-      <c r="H326" s="49"/>
+      <c r="G326" s="34"/>
+      <c r="H326" s="34"/>
     </row>
     <row r="327" spans="1:8" ht="25.5">
-      <c r="A327" s="36"/>
-      <c r="B327" s="36"/>
-      <c r="C327" s="36"/>
-      <c r="D327" s="29"/>
-      <c r="E327" s="54"/>
+      <c r="A327" s="44"/>
+      <c r="B327" s="44"/>
+      <c r="C327" s="44"/>
+      <c r="D327" s="47"/>
+      <c r="E327" s="30"/>
       <c r="F327" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="G327" s="49"/>
-      <c r="H327" s="49"/>
+      <c r="G327" s="34"/>
+      <c r="H327" s="34"/>
     </row>
     <row r="328" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A328" s="36"/>
-      <c r="B328" s="36"/>
-      <c r="C328" s="28">
+      <c r="A328" s="44"/>
+      <c r="B328" s="44"/>
+      <c r="C328" s="45">
         <v>69</v>
       </c>
-      <c r="D328" s="28" t="s">
+      <c r="D328" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E328" s="25" t="s">
+      <c r="E328" s="92" t="s">
         <v>293</v>
       </c>
       <c r="F328" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="G328" s="25" t="str">
+      <c r="G328" s="92" t="str">
         <f>G324</f>
         <v>Приложение открылось на странице All news</v>
       </c>
-      <c r="H328" s="25" t="str">
+      <c r="H328" s="92" t="str">
         <f>H324</f>
         <v>Hе авторизован т.к. необходимо взаимодействие со вторым девайсом</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="12.75">
-      <c r="A329" s="36"/>
-      <c r="B329" s="36"/>
-      <c r="C329" s="29"/>
-      <c r="D329" s="29"/>
-      <c r="E329" s="26"/>
+      <c r="A329" s="44"/>
+      <c r="B329" s="44"/>
+      <c r="C329" s="47"/>
+      <c r="D329" s="47"/>
+      <c r="E329" s="93"/>
       <c r="F329" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="G329" s="26"/>
-      <c r="H329" s="26"/>
+      <c r="G329" s="93"/>
+      <c r="H329" s="93"/>
     </row>
     <row r="330" spans="1:8" ht="12.75">
-      <c r="A330" s="36"/>
-      <c r="B330" s="36"/>
-      <c r="C330" s="29"/>
-      <c r="D330" s="29"/>
-      <c r="E330" s="26"/>
+      <c r="A330" s="44"/>
+      <c r="B330" s="44"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="93"/>
       <c r="F330" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="G330" s="26"/>
-      <c r="H330" s="26"/>
+      <c r="G330" s="93"/>
+      <c r="H330" s="93"/>
     </row>
     <row r="331" spans="1:8" ht="12.75">
-      <c r="A331" s="36"/>
-      <c r="B331" s="36"/>
-      <c r="C331" s="29"/>
-      <c r="D331" s="29"/>
-      <c r="E331" s="26"/>
+      <c r="A331" s="44"/>
+      <c r="B331" s="44"/>
+      <c r="C331" s="47"/>
+      <c r="D331" s="47"/>
+      <c r="E331" s="93"/>
       <c r="F331" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="G331" s="26"/>
-      <c r="H331" s="26"/>
+      <c r="G331" s="93"/>
+      <c r="H331" s="93"/>
     </row>
     <row r="332" spans="1:8" ht="25.5">
-      <c r="A332" s="36"/>
-      <c r="B332" s="36"/>
-      <c r="C332" s="30"/>
-      <c r="D332" s="30"/>
-      <c r="E332" s="27"/>
+      <c r="A332" s="44"/>
+      <c r="B332" s="44"/>
+      <c r="C332" s="46"/>
+      <c r="D332" s="46"/>
+      <c r="E332" s="94"/>
       <c r="F332" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="G332" s="27"/>
-      <c r="H332" s="27"/>
+      <c r="G332" s="94"/>
+      <c r="H332" s="94"/>
     </row>
     <row r="333" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A333" s="36"/>
-      <c r="B333" s="36"/>
-      <c r="C333" s="28">
+      <c r="A333" s="44"/>
+      <c r="B333" s="44"/>
+      <c r="C333" s="45">
         <v>70</v>
       </c>
-      <c r="D333" s="28" t="s">
+      <c r="D333" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E333" s="25" t="s">
+      <c r="E333" s="92" t="s">
         <v>298</v>
       </c>
       <c r="F333" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="G333" s="25" t="str">
+      <c r="G333" s="92" t="str">
         <f>G328</f>
         <v>Приложение открылось на странице All news</v>
       </c>
-      <c r="H333" s="25" t="str">
+      <c r="H333" s="92" t="str">
         <f>H324</f>
         <v>Hе авторизован т.к. необходимо взаимодействие со вторым девайсом</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="12.75">
-      <c r="A334" s="36"/>
-      <c r="B334" s="36"/>
-      <c r="C334" s="29"/>
-      <c r="D334" s="29"/>
-      <c r="E334" s="26"/>
+      <c r="A334" s="44"/>
+      <c r="B334" s="44"/>
+      <c r="C334" s="47"/>
+      <c r="D334" s="47"/>
+      <c r="E334" s="93"/>
       <c r="F334" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="G334" s="26"/>
-      <c r="H334" s="26"/>
+      <c r="G334" s="93"/>
+      <c r="H334" s="93"/>
     </row>
     <row r="335" spans="1:8" ht="12.75">
-      <c r="A335" s="36"/>
-      <c r="B335" s="36"/>
-      <c r="C335" s="29"/>
-      <c r="D335" s="29"/>
-      <c r="E335" s="26"/>
+      <c r="A335" s="44"/>
+      <c r="B335" s="44"/>
+      <c r="C335" s="47"/>
+      <c r="D335" s="47"/>
+      <c r="E335" s="93"/>
       <c r="F335" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="G335" s="26"/>
-      <c r="H335" s="26"/>
+      <c r="G335" s="93"/>
+      <c r="H335" s="93"/>
     </row>
     <row r="336" spans="1:8" ht="12.75">
-      <c r="A336" s="36"/>
-      <c r="B336" s="36"/>
-      <c r="C336" s="29"/>
-      <c r="D336" s="29"/>
-      <c r="E336" s="26"/>
+      <c r="A336" s="44"/>
+      <c r="B336" s="44"/>
+      <c r="C336" s="47"/>
+      <c r="D336" s="47"/>
+      <c r="E336" s="93"/>
       <c r="F336" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="G336" s="26"/>
-      <c r="H336" s="26"/>
+      <c r="G336" s="93"/>
+      <c r="H336" s="93"/>
     </row>
     <row r="337" spans="1:8" ht="25.5">
-      <c r="A337" s="36"/>
-      <c r="B337" s="36"/>
-      <c r="C337" s="30"/>
-      <c r="D337" s="30"/>
-      <c r="E337" s="27"/>
+      <c r="A337" s="44"/>
+      <c r="B337" s="44"/>
+      <c r="C337" s="46"/>
+      <c r="D337" s="46"/>
+      <c r="E337" s="94"/>
       <c r="F337" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="G337" s="27"/>
-      <c r="H337" s="27"/>
+      <c r="G337" s="94"/>
+      <c r="H337" s="94"/>
     </row>
     <row r="338" spans="1:8" ht="15" customHeight="1">
-      <c r="A338" s="36"/>
-      <c r="B338" s="36"/>
-      <c r="C338" s="28">
+      <c r="A338" s="44"/>
+      <c r="B338" s="44"/>
+      <c r="C338" s="45">
         <v>71</v>
       </c>
-      <c r="D338" s="28" t="s">
+      <c r="D338" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="E338" s="34" t="s">
+      <c r="E338" s="87" t="s">
         <v>302</v>
       </c>
       <c r="F338" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="G338" s="25" t="str">
+      <c r="G338" s="92" t="str">
         <f>G328</f>
         <v>Приложение открылось на странице All news</v>
       </c>
-      <c r="H338" s="25" t="str">
+      <c r="H338" s="92" t="str">
         <f>H324</f>
         <v>Hе авторизован т.к. необходимо взаимодействие со вторым девайсом</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="12.75">
-      <c r="A339" s="36"/>
-      <c r="B339" s="36"/>
-      <c r="C339" s="29"/>
-      <c r="D339" s="29"/>
-      <c r="E339" s="34"/>
+      <c r="A339" s="44"/>
+      <c r="B339" s="44"/>
+      <c r="C339" s="47"/>
+      <c r="D339" s="47"/>
+      <c r="E339" s="87"/>
       <c r="F339" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="G339" s="26"/>
-      <c r="H339" s="26"/>
+      <c r="G339" s="93"/>
+      <c r="H339" s="93"/>
     </row>
     <row r="340" spans="1:8" ht="12.75">
-      <c r="A340" s="36"/>
-      <c r="B340" s="36"/>
-      <c r="C340" s="29"/>
-      <c r="D340" s="29"/>
-      <c r="E340" s="34"/>
+      <c r="A340" s="44"/>
+      <c r="B340" s="44"/>
+      <c r="C340" s="47"/>
+      <c r="D340" s="47"/>
+      <c r="E340" s="87"/>
       <c r="F340" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="G340" s="26"/>
-      <c r="H340" s="26"/>
+      <c r="G340" s="93"/>
+      <c r="H340" s="93"/>
     </row>
     <row r="341" spans="1:8" ht="12.75">
-      <c r="A341" s="36"/>
-      <c r="B341" s="36"/>
-      <c r="C341" s="29"/>
-      <c r="D341" s="29"/>
-      <c r="E341" s="34"/>
+      <c r="A341" s="44"/>
+      <c r="B341" s="44"/>
+      <c r="C341" s="47"/>
+      <c r="D341" s="47"/>
+      <c r="E341" s="87"/>
       <c r="F341" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="G341" s="26"/>
-      <c r="H341" s="26"/>
+      <c r="G341" s="93"/>
+      <c r="H341" s="93"/>
     </row>
     <row r="342" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A342" s="37"/>
-      <c r="B342" s="37"/>
-      <c r="C342" s="30"/>
-      <c r="D342" s="30"/>
-      <c r="E342" s="34"/>
+      <c r="A342" s="72"/>
+      <c r="B342" s="72"/>
+      <c r="C342" s="46"/>
+      <c r="D342" s="46"/>
+      <c r="E342" s="87"/>
       <c r="F342" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="G342" s="27"/>
-      <c r="H342" s="27"/>
+      <c r="G342" s="94"/>
+      <c r="H342" s="94"/>
     </row>
     <row r="344" spans="1:8" ht="15.75" customHeight="1">
       <c r="B344" t="s">
@@ -6746,6 +6746,323 @@
     </row>
   </sheetData>
   <mergeCells count="341">
+    <mergeCell ref="G338:G342"/>
+    <mergeCell ref="H338:H342"/>
+    <mergeCell ref="E328:E332"/>
+    <mergeCell ref="D328:D332"/>
+    <mergeCell ref="C328:C332"/>
+    <mergeCell ref="G328:G332"/>
+    <mergeCell ref="H328:H332"/>
+    <mergeCell ref="G333:G337"/>
+    <mergeCell ref="H333:H337"/>
+    <mergeCell ref="C333:C337"/>
+    <mergeCell ref="D333:D337"/>
+    <mergeCell ref="E333:E337"/>
+    <mergeCell ref="D294:D301"/>
+    <mergeCell ref="D302:D304"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="E338:E342"/>
+    <mergeCell ref="A324:A342"/>
+    <mergeCell ref="B324:B342"/>
+    <mergeCell ref="C338:C342"/>
+    <mergeCell ref="D338:D342"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="C277:C281"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="C287:C293"/>
+    <mergeCell ref="C294:C301"/>
+    <mergeCell ref="C302:C304"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="E302:E304"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="D225:D228"/>
+    <mergeCell ref="D229:D235"/>
+    <mergeCell ref="D236:D246"/>
+    <mergeCell ref="D247:D259"/>
+    <mergeCell ref="D260:D272"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="D277:D281"/>
+    <mergeCell ref="D282:D286"/>
+    <mergeCell ref="D287:D293"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="D175:D180"/>
+    <mergeCell ref="D181:D190"/>
+    <mergeCell ref="D191:D199"/>
+    <mergeCell ref="D200:D208"/>
+    <mergeCell ref="D209:D211"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="D215:D222"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="D133:D137"/>
+    <mergeCell ref="D138:D142"/>
+    <mergeCell ref="D143:D149"/>
+    <mergeCell ref="D150:D157"/>
+    <mergeCell ref="D158:D164"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D77:D85"/>
+    <mergeCell ref="D86:D94"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D109"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="C215:C222"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C225:C228"/>
+    <mergeCell ref="C229:C235"/>
+    <mergeCell ref="C236:C246"/>
+    <mergeCell ref="C247:C259"/>
+    <mergeCell ref="C260:C272"/>
+    <mergeCell ref="C143:C149"/>
+    <mergeCell ref="C150:C157"/>
+    <mergeCell ref="C158:C164"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C175:C180"/>
+    <mergeCell ref="C181:C190"/>
+    <mergeCell ref="C191:C199"/>
+    <mergeCell ref="C200:C208"/>
+    <mergeCell ref="C103:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C137"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="H310:H312"/>
+    <mergeCell ref="H313:H314"/>
+    <mergeCell ref="H324:H327"/>
+    <mergeCell ref="H236:H246"/>
+    <mergeCell ref="H247:H259"/>
+    <mergeCell ref="H260:H272"/>
+    <mergeCell ref="H273:H276"/>
+    <mergeCell ref="H277:H281"/>
+    <mergeCell ref="H282:H286"/>
+    <mergeCell ref="H287:H293"/>
+    <mergeCell ref="H315:H320"/>
+    <mergeCell ref="H212:H214"/>
+    <mergeCell ref="H215:H222"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="H225:H228"/>
+    <mergeCell ref="H229:H235"/>
+    <mergeCell ref="H294:H301"/>
+    <mergeCell ref="H302:H304"/>
+    <mergeCell ref="H305:H306"/>
+    <mergeCell ref="H307:H308"/>
+    <mergeCell ref="H171:H173"/>
+    <mergeCell ref="G175:G180"/>
+    <mergeCell ref="H175:H180"/>
+    <mergeCell ref="G181:G190"/>
+    <mergeCell ref="H181:H190"/>
+    <mergeCell ref="H191:H199"/>
+    <mergeCell ref="G191:G199"/>
+    <mergeCell ref="G200:G208"/>
+    <mergeCell ref="G209:G211"/>
+    <mergeCell ref="H200:H208"/>
+    <mergeCell ref="H209:H211"/>
+    <mergeCell ref="G138:G142"/>
+    <mergeCell ref="H138:H142"/>
+    <mergeCell ref="H143:H149"/>
+    <mergeCell ref="G143:G149"/>
+    <mergeCell ref="G150:G157"/>
+    <mergeCell ref="H150:H157"/>
+    <mergeCell ref="G158:G164"/>
+    <mergeCell ref="H158:H164"/>
+    <mergeCell ref="G165:G170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="G129:G132"/>
+    <mergeCell ref="H129:H132"/>
+    <mergeCell ref="G133:G137"/>
+    <mergeCell ref="H133:H137"/>
+    <mergeCell ref="G294:G301"/>
+    <mergeCell ref="G302:G304"/>
+    <mergeCell ref="G305:G306"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="G310:G312"/>
+    <mergeCell ref="G313:G314"/>
+    <mergeCell ref="G324:G327"/>
+    <mergeCell ref="G229:G235"/>
+    <mergeCell ref="G236:G246"/>
+    <mergeCell ref="G247:G259"/>
+    <mergeCell ref="G260:G272"/>
+    <mergeCell ref="G273:G276"/>
+    <mergeCell ref="G277:G281"/>
+    <mergeCell ref="G282:G286"/>
+    <mergeCell ref="G315:G320"/>
+    <mergeCell ref="E150:E157"/>
+    <mergeCell ref="E158:E164"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="E175:E180"/>
+    <mergeCell ref="E181:E190"/>
+    <mergeCell ref="E209:E211"/>
+    <mergeCell ref="E212:E214"/>
+    <mergeCell ref="G287:G293"/>
+    <mergeCell ref="G171:G173"/>
+    <mergeCell ref="G212:G214"/>
+    <mergeCell ref="G215:G222"/>
+    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="G225:G228"/>
+    <mergeCell ref="H115:H119"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E77:E85"/>
+    <mergeCell ref="E86:E94"/>
+    <mergeCell ref="G115:G119"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="G77:G85"/>
+    <mergeCell ref="H77:H85"/>
+    <mergeCell ref="H86:H94"/>
+    <mergeCell ref="H96:H102"/>
+    <mergeCell ref="H61:H68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="E96:E102"/>
+    <mergeCell ref="E103:E109"/>
+    <mergeCell ref="G103:G109"/>
+    <mergeCell ref="H103:H109"/>
+    <mergeCell ref="G110:G114"/>
+    <mergeCell ref="H110:H114"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G60"/>
+    <mergeCell ref="H53:H60"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="G86:G94"/>
+    <mergeCell ref="G96:G102"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="C96:C102"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G61:G68"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="A321:A323"/>
+    <mergeCell ref="B321:B323"/>
+    <mergeCell ref="B302:B320"/>
+    <mergeCell ref="A302:A320"/>
+    <mergeCell ref="C315:C320"/>
+    <mergeCell ref="D315:D320"/>
+    <mergeCell ref="E315:E320"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="A53:A120"/>
+    <mergeCell ref="B53:B120"/>
+    <mergeCell ref="E143:E149"/>
+    <mergeCell ref="E310:E312"/>
+    <mergeCell ref="E313:E314"/>
+    <mergeCell ref="E324:E327"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="C324:C327"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="D313:D314"/>
+    <mergeCell ref="D324:D327"/>
     <mergeCell ref="E236:E246"/>
     <mergeCell ref="E247:E259"/>
     <mergeCell ref="E110:E114"/>
@@ -6770,323 +7087,6 @@
     <mergeCell ref="E129:E132"/>
     <mergeCell ref="E133:E137"/>
     <mergeCell ref="E138:E142"/>
-    <mergeCell ref="E310:E312"/>
-    <mergeCell ref="E313:E314"/>
-    <mergeCell ref="E324:E327"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="C324:C327"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="D324:D327"/>
-    <mergeCell ref="A321:A323"/>
-    <mergeCell ref="B321:B323"/>
-    <mergeCell ref="B302:B320"/>
-    <mergeCell ref="A302:A320"/>
-    <mergeCell ref="C315:C320"/>
-    <mergeCell ref="D315:D320"/>
-    <mergeCell ref="E315:E320"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G86:G94"/>
-    <mergeCell ref="G96:G102"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="C96:C102"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B37"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="A53:A120"/>
-    <mergeCell ref="B53:B120"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G60"/>
-    <mergeCell ref="H53:H60"/>
-    <mergeCell ref="G61:G68"/>
-    <mergeCell ref="H61:H68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="E96:E102"/>
-    <mergeCell ref="E103:E109"/>
-    <mergeCell ref="G103:G109"/>
-    <mergeCell ref="H103:H109"/>
-    <mergeCell ref="G110:G114"/>
-    <mergeCell ref="H110:H114"/>
-    <mergeCell ref="H115:H119"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E77:E85"/>
-    <mergeCell ref="E86:E94"/>
-    <mergeCell ref="G115:G119"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="G77:G85"/>
-    <mergeCell ref="H77:H85"/>
-    <mergeCell ref="H86:H94"/>
-    <mergeCell ref="H96:H102"/>
-    <mergeCell ref="E143:E149"/>
-    <mergeCell ref="E150:E157"/>
-    <mergeCell ref="E158:E164"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="E175:E180"/>
-    <mergeCell ref="E181:E190"/>
-    <mergeCell ref="E209:E211"/>
-    <mergeCell ref="E212:E214"/>
-    <mergeCell ref="G287:G293"/>
-    <mergeCell ref="G294:G301"/>
-    <mergeCell ref="G302:G304"/>
-    <mergeCell ref="G305:G306"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="G310:G312"/>
-    <mergeCell ref="G313:G314"/>
-    <mergeCell ref="G324:G327"/>
-    <mergeCell ref="G229:G235"/>
-    <mergeCell ref="G236:G246"/>
-    <mergeCell ref="G247:G259"/>
-    <mergeCell ref="G260:G272"/>
-    <mergeCell ref="G273:G276"/>
-    <mergeCell ref="G277:G281"/>
-    <mergeCell ref="G282:G286"/>
-    <mergeCell ref="G315:G320"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="G129:G132"/>
-    <mergeCell ref="H129:H132"/>
-    <mergeCell ref="G133:G137"/>
-    <mergeCell ref="H133:H137"/>
-    <mergeCell ref="G138:G142"/>
-    <mergeCell ref="H138:H142"/>
-    <mergeCell ref="H143:H149"/>
-    <mergeCell ref="G143:G149"/>
-    <mergeCell ref="G150:G157"/>
-    <mergeCell ref="H150:H157"/>
-    <mergeCell ref="G158:G164"/>
-    <mergeCell ref="H158:H164"/>
-    <mergeCell ref="G165:G170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="G171:G173"/>
-    <mergeCell ref="H171:H173"/>
-    <mergeCell ref="G175:G180"/>
-    <mergeCell ref="H175:H180"/>
-    <mergeCell ref="G181:G190"/>
-    <mergeCell ref="H181:H190"/>
-    <mergeCell ref="H191:H199"/>
-    <mergeCell ref="G191:G199"/>
-    <mergeCell ref="G200:G208"/>
-    <mergeCell ref="G209:G211"/>
-    <mergeCell ref="G212:G214"/>
-    <mergeCell ref="G215:G222"/>
-    <mergeCell ref="G223:G224"/>
-    <mergeCell ref="G225:G228"/>
-    <mergeCell ref="H200:H208"/>
-    <mergeCell ref="H209:H211"/>
-    <mergeCell ref="H212:H214"/>
-    <mergeCell ref="H215:H222"/>
-    <mergeCell ref="H223:H224"/>
-    <mergeCell ref="H225:H228"/>
-    <mergeCell ref="H229:H235"/>
-    <mergeCell ref="H294:H301"/>
-    <mergeCell ref="H302:H304"/>
-    <mergeCell ref="H305:H306"/>
-    <mergeCell ref="H307:H308"/>
-    <mergeCell ref="H310:H312"/>
-    <mergeCell ref="H313:H314"/>
-    <mergeCell ref="H324:H327"/>
-    <mergeCell ref="H236:H246"/>
-    <mergeCell ref="H247:H259"/>
-    <mergeCell ref="H260:H272"/>
-    <mergeCell ref="H273:H276"/>
-    <mergeCell ref="H277:H281"/>
-    <mergeCell ref="H282:H286"/>
-    <mergeCell ref="H287:H293"/>
-    <mergeCell ref="H315:H320"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C103:C109"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C137"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="C143:C149"/>
-    <mergeCell ref="C150:C157"/>
-    <mergeCell ref="C158:C164"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C175:C180"/>
-    <mergeCell ref="C181:C190"/>
-    <mergeCell ref="C191:C199"/>
-    <mergeCell ref="C200:C208"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="C215:C222"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="C225:C228"/>
-    <mergeCell ref="C229:C235"/>
-    <mergeCell ref="C236:C246"/>
-    <mergeCell ref="C247:C259"/>
-    <mergeCell ref="C260:C272"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D77:D85"/>
-    <mergeCell ref="D86:D94"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D109"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="D133:D137"/>
-    <mergeCell ref="D138:D142"/>
-    <mergeCell ref="D143:D149"/>
-    <mergeCell ref="D150:D157"/>
-    <mergeCell ref="D158:D164"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="D175:D180"/>
-    <mergeCell ref="D181:D190"/>
-    <mergeCell ref="D191:D199"/>
-    <mergeCell ref="D200:D208"/>
-    <mergeCell ref="D209:D211"/>
-    <mergeCell ref="D212:D214"/>
-    <mergeCell ref="D215:D222"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="D225:D228"/>
-    <mergeCell ref="D229:D235"/>
-    <mergeCell ref="D236:D246"/>
-    <mergeCell ref="D247:D259"/>
-    <mergeCell ref="D260:D272"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="D277:D281"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="D287:D293"/>
-    <mergeCell ref="D294:D301"/>
-    <mergeCell ref="D302:D304"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="E338:E342"/>
-    <mergeCell ref="A324:A342"/>
-    <mergeCell ref="B324:B342"/>
-    <mergeCell ref="C338:C342"/>
-    <mergeCell ref="D338:D342"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="C277:C281"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="C287:C293"/>
-    <mergeCell ref="C294:C301"/>
-    <mergeCell ref="C302:C304"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="E302:E304"/>
-    <mergeCell ref="E305:E306"/>
-    <mergeCell ref="E307:E308"/>
-    <mergeCell ref="G338:G342"/>
-    <mergeCell ref="H338:H342"/>
-    <mergeCell ref="E328:E332"/>
-    <mergeCell ref="D328:D332"/>
-    <mergeCell ref="C328:C332"/>
-    <mergeCell ref="G328:G332"/>
-    <mergeCell ref="H328:H332"/>
-    <mergeCell ref="G333:G337"/>
-    <mergeCell ref="H333:H337"/>
-    <mergeCell ref="C333:C337"/>
-    <mergeCell ref="D333:D337"/>
-    <mergeCell ref="E333:E337"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
